--- a/data_out/Fujitsu/CheckingPooledStats.xlsx
+++ b/data_out/Fujitsu/CheckingPooledStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhas\Desktop\prjs\cognitive_measures\data_out\Fujitsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568FC130-B845-48D0-B0CE-BD3A097D747F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D5A3C-76DC-495A-B9B6-7E0F0E77FF8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{32A8C41A-0E55-4B78-BDB5-C41D32D4F291}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>difference - all within numerical precision</t>
   </si>
@@ -46,19 +46,34 @@
     <t>average, excel formula</t>
   </si>
   <si>
-    <t>tier 1, delta, sem</t>
+    <t>average, from file</t>
   </si>
   <si>
-    <t>tier 1, delta, std</t>
+    <t>pooled sem, excel formula</t>
   </si>
   <si>
-    <t>tier 2, delta, sem</t>
+    <t>pooled std, excel formula</t>
   </si>
   <si>
-    <t>tier 2, delta, std</t>
+    <t>pooled std, from file</t>
   </si>
   <si>
-    <t>average, from file</t>
+    <t>pooled sem, from file</t>
+  </si>
+  <si>
+    <t>log10 difference (show magnitude)</t>
+  </si>
+  <si>
+    <t>tier 1, delta, sem - after</t>
+  </si>
+  <si>
+    <t>tier 1, delta, std - after</t>
+  </si>
+  <si>
+    <t>tier 2, delta, sem - after</t>
+  </si>
+  <si>
+    <t>tier 2, delta, std - after</t>
   </si>
 </sst>
 </file>
@@ -413,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8805D5A-AE11-4B3A-BE57-87CE124A7E1E}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2447,7 +2462,7 @@
         <v>-4.9999999999432009E-10</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ref="B58:L58" si="12">C30-C44</f>
+        <f t="shared" ref="C58:L58" si="12">C30-C44</f>
         <v>0</v>
       </c>
       <c r="D58" s="1">
@@ -3105,20 +3120,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B04AC6B-7692-4856-B036-CAF90D7CA817}">
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -4155,10 +4174,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -5195,1628 +5214,4455 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <f>SQRT(N2^2+N16^2/2)</f>
+        <f>N30/SQRT(18)</f>
         <v>0</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:L30" si="27">SQRT(O2^2+O16^2/2)</f>
-        <v>5.384765518571816E-5</v>
+        <f t="shared" ref="B30:L30" si="27">O30/SQRT(18)</f>
+        <v>1.2692014044272091E-5</v>
       </c>
       <c r="C30">
         <f t="shared" si="27"/>
-        <v>6.8071078913882352E-5</v>
+        <v>1.6044507167563606E-5</v>
       </c>
       <c r="D30">
         <f t="shared" si="27"/>
-        <v>2.0329034808740922E-4</v>
+        <v>4.7915994560793589E-5</v>
       </c>
       <c r="E30">
         <f t="shared" si="27"/>
-        <v>4.2581541894640215E-5</v>
+        <v>1.0036565675693057E-5</v>
       </c>
       <c r="F30">
         <f t="shared" si="27"/>
-        <v>6.5175110198641023E-5</v>
+        <v>1.5361920795346527E-5</v>
       </c>
       <c r="G30">
         <f t="shared" si="27"/>
-        <v>2.8848052022623641E-5</v>
+        <v>6.7995510697398252E-6</v>
       </c>
       <c r="H30">
         <f t="shared" si="27"/>
-        <v>3.3379047872280596E-5</v>
+        <v>7.867517033346671E-6</v>
       </c>
       <c r="I30">
         <f t="shared" si="27"/>
-        <v>4.1947822607377367E-5</v>
+        <v>9.8871966072289666E-6</v>
       </c>
       <c r="J30">
         <f t="shared" si="27"/>
-        <v>7.5929266323993943E-5</v>
+        <v>1.7896699702738494E-5</v>
       </c>
       <c r="K30">
         <f t="shared" si="27"/>
-        <v>5.3298820451300801E-5</v>
+        <v>1.2562652456786348E-5</v>
       </c>
       <c r="L30">
         <f t="shared" si="27"/>
+        <v>3.0342768899690091E-5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:Y30" si="28">SQRT(N2^2+N16^2/2)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="28"/>
+        <v>5.384765518571816E-5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="28"/>
+        <v>6.8071078913882352E-5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="28"/>
+        <v>2.0329034808740922E-4</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="28"/>
+        <v>4.2581541894640215E-5</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="28"/>
+        <v>6.5175110198641023E-5</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="28"/>
+        <v>2.8848052022623641E-5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="28"/>
+        <v>3.3379047872280596E-5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="28"/>
+        <v>4.1947822607377367E-5</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="28"/>
+        <v>7.5929266323993943E-5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="28"/>
+        <v>5.3298820451300801E-5</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="28"/>
         <v>1.2873346589368283E-4</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <f t="shared" ref="A31:A48" si="28">SQRT(N3^2+N17^2/2)</f>
+        <f t="shared" ref="A31:A41" si="29">N31/SQRT(18)</f>
+        <v>1.0690622280765514E-5</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B41" si="30">O31/SQRT(18)</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C41" si="31">P31/SQRT(18)</f>
+        <v>8.1449218541370936E-6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D41" si="32">Q31/SQRT(18)</f>
+        <v>2.4636414359642517E-5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E41" si="33">R31/SQRT(18)</f>
+        <v>1.2376652545114934E-5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F41" si="34">S31/SQRT(18)</f>
+        <v>2.0220452173727473E-5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G41" si="35">T31/SQRT(18)</f>
+        <v>9.9364565364117609E-6</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H41" si="36">U31/SQRT(18)</f>
+        <v>6.0384260929483938E-6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I41" si="37">V31/SQRT(18)</f>
+        <v>5.4680702562695741E-6</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J41" si="38">W31/SQRT(18)</f>
+        <v>1.9663214411687631E-5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K41" si="39">X31/SQRT(18)</f>
+        <v>8.0924248260332959E-6</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L41" si="40">Y31/SQRT(18)</f>
+        <v>2.7622964224355071E-5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Y31" si="41">SQRT(N3^2+N17^2/2)</f>
         <v>4.5356469058999735E-5</v>
       </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B48" si="29">SQRT(O3^2+O17^2/2)</f>
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C48" si="30">SQRT(P3^2+P17^2/2)</f>
+      <c r="O31">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="41"/>
         <v>3.4555976851769075E-5</v>
       </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D48" si="31">SQRT(Q3^2+Q17^2/2)</f>
+      <c r="Q31">
+        <f t="shared" si="41"/>
         <v>1.0452345394694914E-4</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E48" si="32">SQRT(R3^2+R17^2/2)</f>
+      <c r="R31">
+        <f t="shared" si="41"/>
         <v>5.2509689658243072E-5</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F48" si="33">SQRT(S3^2+S17^2/2)</f>
+      <c r="S31">
+        <f t="shared" si="41"/>
         <v>8.5788113104205756E-5</v>
       </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G48" si="34">SQRT(T3^2+T17^2/2)</f>
+      <c r="T31">
+        <f t="shared" si="41"/>
         <v>4.2156814787172899E-5</v>
       </c>
-      <c r="H31">
-        <f t="shared" ref="H31:H48" si="35">SQRT(U3^2+U17^2/2)</f>
+      <c r="U31">
+        <f t="shared" si="41"/>
         <v>2.5618872228105593E-5</v>
       </c>
-      <c r="I31">
-        <f t="shared" ref="I31:I48" si="36">SQRT(V3^2+V17^2/2)</f>
+      <c r="V31">
+        <f t="shared" si="41"/>
         <v>2.3199057349276071E-5</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J48" si="37">SQRT(W3^2+W17^2/2)</f>
+      <c r="W31">
+        <f t="shared" si="41"/>
         <v>8.3423953502576229E-5</v>
       </c>
-      <c r="K31">
-        <f t="shared" ref="K31:K48" si="38">SQRT(X3^2+X17^2/2)</f>
+      <c r="X31">
+        <f t="shared" si="41"/>
         <v>3.4333250824383058E-5</v>
       </c>
-      <c r="L31">
-        <f t="shared" ref="L31:L48" si="39">SQRT(Y3^2+Y17^2/2)</f>
+      <c r="Y31">
+        <f t="shared" si="41"/>
         <v>1.1719431191708922E-4</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
+        <v>1.9477189087494123E-5</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="30"/>
+        <v>1.3724826556281138E-5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="32"/>
+        <v>2.3066634182298902E-5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="33"/>
+        <v>8.8448265218996807E-6</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="34"/>
+        <v>1.2926272369093885E-5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="35"/>
+        <v>7.7402104218813069E-6</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="36"/>
+        <v>7.7614899086773303E-6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="37"/>
+        <v>2.6062489846520804E-5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="38"/>
+        <v>3.9671372937547801E-5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="39"/>
+        <v>1.3711503528059934E-5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="40"/>
+        <v>2.3132757859851041E-5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:Y32" si="42">SQRT(N4^2+N18^2/2)</f>
         <v>8.2634714893318299E-5</v>
       </c>
-      <c r="B32">
+      <c r="O32">
+        <f t="shared" si="42"/>
+        <v>5.8229507571333618E-5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="42"/>
+        <v>9.7863440696717788E-5</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="42"/>
+        <v>3.7525420872323338E-5</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="42"/>
+        <v>5.4841529085903506E-5</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="42"/>
+        <v>3.2838931662738358E-5</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="42"/>
+        <v>3.2929212879220182E-5</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="42"/>
+        <v>1.105737798304824E-4</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="42"/>
+        <v>1.683113809387232E-4</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="42"/>
+        <v>5.8172982749726694E-5</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="42"/>
+        <v>9.8143979701482455E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
         <f t="shared" si="29"/>
-        <v>5.8229507571333618E-5</v>
-      </c>
-      <c r="C32">
+        <v>6.7267977704848537E-5</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D32">
+        <v>1.9562226157827746E-5</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="31"/>
-        <v>9.7863440696717788E-5</v>
-      </c>
-      <c r="E32">
+        <v>1.2820525608960033E-5</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="32"/>
-        <v>3.7525420872323338E-5</v>
-      </c>
-      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="33"/>
-        <v>5.4841529085903506E-5</v>
-      </c>
-      <c r="G32">
+        <v>8.1372331071439767E-6</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="34"/>
-        <v>3.2838931662738358E-5</v>
-      </c>
-      <c r="H32">
+        <v>1.6616311023810308E-5</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="35"/>
-        <v>3.2929212879220182E-5</v>
-      </c>
-      <c r="I32">
+        <v>6.6494572246537539E-6</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="36"/>
-        <v>1.105737798304824E-4</v>
-      </c>
-      <c r="J32">
+        <v>9.4247155591030966E-6</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="37"/>
-        <v>1.683113809387232E-4</v>
-      </c>
-      <c r="K32">
+        <v>1.1819493453612977E-5</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="38"/>
-        <v>5.8172982749726694E-5</v>
-      </c>
-      <c r="L32">
+        <v>2.1437680961102117E-5</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="39"/>
-        <v>9.8143979701482455E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <f t="shared" si="28"/>
+        <v>1.4002214619480734E-5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="40"/>
+        <v>2.8825649229462294E-5</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:Y33" si="43">SQRT(N5^2+N19^2/2)</f>
         <v>2.8539385915082334E-4</v>
       </c>
-      <c r="B33">
+      <c r="O33">
+        <f t="shared" si="43"/>
+        <v>8.2995496627829153E-5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="43"/>
+        <v>5.4392883578828583E-5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="43"/>
+        <v>3.4523356260943111E-5</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="43"/>
+        <v>7.0497037219446315E-5</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="43"/>
+        <v>2.8211257768575295E-5</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="43"/>
+        <v>3.9985681695576979E-5</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="43"/>
+        <v>5.0145863827438449E-5</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="43"/>
+        <v>9.0952377483054288E-5</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="43"/>
+        <v>5.9406365454385436E-5</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="43"/>
+        <v>1.2229687225354539E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
         <f t="shared" si="29"/>
-        <v>8.2995496627829153E-5</v>
-      </c>
-      <c r="C33">
+        <v>8.6192020141078039E-6</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="30"/>
-        <v>5.4392883578828583E-5</v>
-      </c>
-      <c r="D33">
+        <v>1.8627600670778833E-5</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
+        <v>5.7463237091204683E-6</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="32"/>
-        <v>3.4523356260943111E-5</v>
-      </c>
-      <c r="F33">
+        <v>1.6217131587383145E-5</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="33"/>
-        <v>7.0497037219446315E-5</v>
-      </c>
-      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="34"/>
-        <v>2.8211257768575295E-5</v>
-      </c>
-      <c r="H33">
+        <v>2.838877842563854E-5</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="35"/>
-        <v>3.9985681695576979E-5</v>
-      </c>
-      <c r="I33">
+        <v>5.4789303778201089E-6</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="36"/>
-        <v>5.0145863827438449E-5</v>
-      </c>
-      <c r="J33">
+        <v>8.9869292209575123E-6</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="37"/>
-        <v>9.0952377483054288E-5</v>
-      </c>
-      <c r="K33">
+        <v>7.0800031922662306E-6</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="38"/>
-        <v>5.9406365454385436E-5</v>
-      </c>
-      <c r="L33">
+        <v>1.541689101480905E-5</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="39"/>
-        <v>1.2229687225354539E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <f t="shared" si="28"/>
+        <v>8.1186270909865048E-6</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="40"/>
+        <v>3.2958181122484603E-5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:Y34" si="44">SQRT(N6^2+N20^2/2)</f>
         <v>3.6568177155554257E-5</v>
       </c>
-      <c r="B34">
+      <c r="O34">
+        <f t="shared" si="44"/>
+        <v>7.9030216509256752E-5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="44"/>
+        <v>2.4379586769672701E-5</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="44"/>
+        <v>6.8803462300999076E-5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="44"/>
+        <v>1.2044338640622822E-4</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="44"/>
+        <v>2.324513294283343E-5</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="44"/>
+        <v>3.812831156509556E-5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="44"/>
+        <v>3.003790960844313E-5</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="44"/>
+        <v>6.5408329088312598E-5</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="44"/>
+        <v>3.4444417619768226E-5</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="44"/>
+        <v>1.3982972020369991E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
         <f t="shared" si="29"/>
-        <v>7.9030216509256752E-5</v>
-      </c>
-      <c r="C34">
+        <v>8.315222287467727E-6</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="30"/>
-        <v>2.4379586769672701E-5</v>
-      </c>
-      <c r="D34">
+        <v>1.6778832403060709E-5</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="31"/>
-        <v>6.8803462300999076E-5</v>
-      </c>
-      <c r="E34">
+        <v>6.0101111988464921E-6</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
+        <v>1.3827019144504721E-5</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="33"/>
-        <v>1.2044338640622822E-4</v>
-      </c>
-      <c r="G34">
+        <v>1.3532277884746528E-5</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="34"/>
-        <v>2.324513294283343E-5</v>
-      </c>
-      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="35"/>
-        <v>3.812831156509556E-5</v>
-      </c>
-      <c r="I34">
+        <v>7.9192113480447034E-6</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="36"/>
-        <v>3.003790960844313E-5</v>
-      </c>
-      <c r="J34">
+        <v>1.6236052606776071E-5</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="37"/>
-        <v>6.5408329088312598E-5</v>
-      </c>
-      <c r="K34">
+        <v>1.0198480765413053E-5</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="38"/>
-        <v>3.4444417619768226E-5</v>
-      </c>
-      <c r="L34">
+        <v>1.3666859718402762E-5</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="39"/>
-        <v>1.3982972020369991E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <f t="shared" si="28"/>
+        <v>1.3008489070699181E-5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="40"/>
+        <v>2.0968523946620563E-5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:Y35" si="45">SQRT(N7^2+N21^2/2)</f>
         <v>3.5278500399251668E-5</v>
       </c>
-      <c r="B35">
+      <c r="O35">
+        <f t="shared" si="45"/>
+        <v>7.1186557035580808E-5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="45"/>
+        <v>2.5498742306337389E-5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="45"/>
+        <v>5.8663074004053012E-5</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="45"/>
+        <v>5.7412592743230115E-5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="45"/>
+        <v>3.3598368275111218E-5</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="45"/>
+        <v>6.8883737387717277E-5</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="45"/>
+        <v>4.3268489442144846E-5</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="45"/>
+        <v>5.7983575106447169E-5</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="45"/>
+        <v>5.5190345009294881E-5</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="45"/>
+        <v>8.8961912844767445E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
         <f t="shared" si="29"/>
-        <v>7.1186557035580808E-5</v>
-      </c>
-      <c r="C35">
+        <v>4.7402022132499792E-6</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="30"/>
-        <v>2.5498742306337389E-5</v>
-      </c>
-      <c r="D35">
+        <v>1.3179763028977418E-5</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="31"/>
-        <v>5.8663074004053012E-5</v>
-      </c>
-      <c r="E35">
+        <v>5.7004799876852474E-6</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="32"/>
-        <v>5.7412592743230115E-5</v>
-      </c>
-      <c r="F35">
+        <v>1.5387940970448258E-5</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
+        <v>1.0835856908431376E-5</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="34"/>
-        <v>3.3598368275111218E-5</v>
-      </c>
-      <c r="H35">
+        <v>1.6391060986098492E-5</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="35"/>
-        <v>6.8883737387717277E-5</v>
-      </c>
-      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="36"/>
-        <v>4.3268489442144846E-5</v>
-      </c>
-      <c r="J35">
+        <v>2.412482163146497E-5</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="37"/>
-        <v>5.7983575106447169E-5</v>
-      </c>
-      <c r="K35">
+        <v>9.9628763618997091E-6</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="38"/>
-        <v>5.5190345009294881E-5</v>
-      </c>
-      <c r="L35">
+        <v>1.6128567791344651E-5</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="39"/>
-        <v>8.8961912844767445E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <f t="shared" si="28"/>
+        <v>1.3396892951352566E-5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="40"/>
+        <v>4.7536452063127302E-5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:Y36" si="46">SQRT(N8^2+N22^2/2)</f>
         <v>2.0110974775107246E-5</v>
       </c>
-      <c r="B36">
+      <c r="O36">
+        <f t="shared" si="46"/>
+        <v>5.5916998873330096E-5</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="46"/>
+        <v>2.4185088331862671E-5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="46"/>
+        <v>6.5285504452213585E-5</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="46"/>
+        <v>4.5972647399513541E-5</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="46"/>
+        <v>6.9541382244675003E-5</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="46"/>
+        <v>1.0235294982314872E-4</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="46"/>
+        <v>4.2268904613734665E-5</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="46"/>
+        <v>6.8427717936520428E-5</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="46"/>
+        <v>5.6838203116389953E-5</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="46"/>
+        <v>2.0168008564431936E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
         <f t="shared" si="29"/>
-        <v>5.5916998873330096E-5</v>
-      </c>
-      <c r="C36">
+        <v>1.0070331601417107E-5</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="30"/>
-        <v>2.4185088331862671E-5</v>
-      </c>
-      <c r="D36">
+        <v>1.2614602134034988E-5</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="31"/>
-        <v>6.5285504452213585E-5</v>
-      </c>
-      <c r="E36">
+        <v>5.7019540440098243E-6</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="32"/>
-        <v>4.5972647399513541E-5</v>
-      </c>
-      <c r="F36">
+        <v>1.8039213452919729E-5</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="33"/>
-        <v>6.9541382244675003E-5</v>
-      </c>
-      <c r="G36">
+        <v>1.2382626244965161E-5</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H36">
+        <v>2.0904253317207961E-5</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="35"/>
-        <v>1.0235294982314872E-4</v>
-      </c>
-      <c r="I36">
+        <v>2.0787982090681628E-5</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="36"/>
-        <v>4.2268904613734665E-5</v>
-      </c>
-      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="37"/>
-        <v>6.8427717936520428E-5</v>
-      </c>
-      <c r="K36">
+        <v>7.6375991211243868E-6</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="38"/>
-        <v>5.6838203116389953E-5</v>
-      </c>
-      <c r="L36">
+        <v>1.5629018275310832E-5</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="39"/>
-        <v>2.0168008564431936E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <f t="shared" si="28"/>
+        <v>1.5135215825682833E-5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="40"/>
+        <v>2.8796283236730395E-5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:Y37" si="47">SQRT(N9^2+N23^2/2)</f>
         <v>4.2724798584955318E-5</v>
       </c>
-      <c r="B37">
+      <c r="O37">
+        <f t="shared" si="47"/>
+        <v>5.3519224265678599E-5</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="47"/>
+        <v>2.4191342223200427E-5</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="47"/>
+        <v>7.6533900958986799E-5</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="47"/>
+        <v>5.2535033920280278E-5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="47"/>
+        <v>8.8689235657434773E-5</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="47"/>
+        <v>8.8195938621032886E-5</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="47"/>
+        <v>3.2403588783188811E-5</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="47"/>
+        <v>6.6308308834564614E-5</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="47"/>
+        <v>6.4213282470373687E-5</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="47"/>
+        <v>1.2217228289796339E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
         <f t="shared" si="29"/>
-        <v>5.3519224265678599E-5</v>
-      </c>
-      <c r="C37">
+        <v>1.4511041115302515E-5</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="30"/>
-        <v>2.4191342223200427E-5</v>
-      </c>
-      <c r="D37">
+        <v>1.3607275360997147E-5</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="31"/>
-        <v>7.6533900958986799E-5</v>
-      </c>
-      <c r="E37">
+        <v>2.434961827729544E-5</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="32"/>
-        <v>5.2535033920280278E-5</v>
-      </c>
-      <c r="F37">
+        <v>2.6072694006373796E-5</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="33"/>
-        <v>8.8689235657434773E-5</v>
-      </c>
-      <c r="G37">
+        <v>9.5537721346073555E-6</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="34"/>
-        <v>8.8195938621032886E-5</v>
-      </c>
-      <c r="H37">
+        <v>1.2726856701479751E-5</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
+        <v>7.0320114009079944E-6</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="36"/>
-        <v>3.2403588783188811E-5</v>
-      </c>
-      <c r="J37">
+        <v>9.4980794933765432E-6</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="37"/>
-        <v>6.6308308834564614E-5</v>
-      </c>
-      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="38"/>
-        <v>6.4213282470373687E-5</v>
-      </c>
-      <c r="L37">
+        <v>2.3980332503949983E-5</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="39"/>
-        <v>1.2217228289796339E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <f t="shared" si="28"/>
+        <v>9.2812688922366659E-6</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="40"/>
+        <v>2.426041693917275E-5</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:Y38" si="48">SQRT(N10^2+N24^2/2)</f>
         <v>6.1565133448243257E-5</v>
       </c>
-      <c r="B38">
+      <c r="O38">
+        <f t="shared" si="48"/>
+        <v>5.7730780087402252E-5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="48"/>
+        <v>1.0330668121907701E-4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="48"/>
+        <v>1.1061707241425257E-4</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="48"/>
+        <v>4.0533222373751628E-5</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="48"/>
+        <v>5.3995480060834726E-5</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="48"/>
+        <v>2.9834297681778939E-5</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="48"/>
+        <v>4.0296938508092647E-5</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="48"/>
+        <v>1.0173993437190728E-4</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="48"/>
+        <v>3.9377089030297809E-5</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="48"/>
+        <v>1.0292823199261221E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
         <f t="shared" si="29"/>
-        <v>5.7730780087402252E-5</v>
-      </c>
-      <c r="C38">
+        <v>1.4743332543560157E-5</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="30"/>
-        <v>1.0330668121907701E-4</v>
-      </c>
-      <c r="D38">
+        <v>3.2546495756071811E-5</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="31"/>
-        <v>1.1061707241425257E-4</v>
-      </c>
-      <c r="E38">
+        <v>1.2215686697848794E-5</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="32"/>
-        <v>4.0533222373751628E-5</v>
-      </c>
-      <c r="F38">
+        <v>2.029725422317019E-5</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="33"/>
-        <v>5.3995480060834726E-5</v>
-      </c>
-      <c r="G38">
+        <v>1.1569160700327401E-5</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="34"/>
-        <v>2.9834297681778939E-5</v>
-      </c>
-      <c r="H38">
+        <v>1.2243146538369949E-5</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="35"/>
-        <v>4.0296938508092647E-5</v>
-      </c>
-      <c r="I38">
+        <v>2.3974330167076619E-5</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
+        <v>1.3010422139577179E-5</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="37"/>
-        <v>1.0173993437190728E-4</v>
-      </c>
-      <c r="K38">
+        <v>1.4397761171446068E-5</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="38"/>
-        <v>3.9377089030297809E-5</v>
-      </c>
-      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="39"/>
-        <v>1.0292823199261221E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <f t="shared" si="28"/>
+        <v>8.0976294890850632E-6</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="40"/>
+        <v>2.0818841834321622E-5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:Y39" si="49">SQRT(N11^2+N25^2/2)</f>
         <v>6.255066251303818E-5</v>
       </c>
-      <c r="B39">
+      <c r="O39">
+        <f t="shared" si="49"/>
+        <v>1.3808308711786538E-4</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="49"/>
+        <v>5.1826769405395117E-5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="49"/>
+        <v>8.6113956604025587E-5</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="49"/>
+        <v>4.9083791903030473E-5</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="49"/>
+        <v>5.1943271642051972E-5</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="49"/>
+        <v>1.0171446861327055E-4</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="49"/>
+        <v>5.5198546325967676E-5</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="49"/>
+        <v>6.1084527349403308E-5</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="49"/>
+        <v>3.4355332339609234E-5</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="49"/>
+        <v>8.8326865424994005E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
         <f t="shared" si="29"/>
-        <v>1.3808308711786538E-4</v>
-      </c>
-      <c r="C39">
+        <v>7.9094226499157319E-6</v>
+      </c>
+      <c r="B40">
         <f t="shared" si="30"/>
-        <v>5.1826769405395117E-5</v>
-      </c>
-      <c r="D39">
+        <v>9.5206001830241789E-6</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="31"/>
-        <v>8.6113956604025587E-5</v>
-      </c>
-      <c r="E39">
+        <v>1.0382418072876858E-5</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="32"/>
-        <v>4.9083791903030473E-5</v>
-      </c>
-      <c r="F39">
+        <v>1.5794530864827864E-5</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="33"/>
-        <v>5.1943271642051972E-5</v>
-      </c>
-      <c r="G39">
+        <v>9.3406725508659175E-6</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="34"/>
-        <v>1.0171446861327055E-4</v>
-      </c>
-      <c r="H39">
+        <v>1.8207049431470219E-5</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="35"/>
-        <v>5.5198546325967676E-5</v>
-      </c>
-      <c r="I39">
+        <v>7.9172557875188045E-6</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="36"/>
-        <v>6.1084527349403308E-5</v>
-      </c>
-      <c r="J39">
+        <v>2.2753633875987812E-5</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K39">
+        <v>4.7101969512961988E-6</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="38"/>
-        <v>3.4355332339609234E-5</v>
-      </c>
-      <c r="L39">
+        <v>1.2693554495195584E-5</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="39"/>
-        <v>8.8326865424994005E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="40"/>
+        <v>1.6456331199267962E-5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:Y40" si="50">SQRT(N12^2+N26^2/2)</f>
         <v>3.3556838346155316E-5</v>
       </c>
-      <c r="B40">
+      <c r="O40">
+        <f t="shared" si="50"/>
+        <v>4.0392485702293687E-5</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="50"/>
+        <v>4.4048869346669951E-5</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="50"/>
+        <v>6.7010519281080033E-5</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="50"/>
+        <v>3.9629117409362021E-5</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="50"/>
+        <v>7.7245968710347598E-5</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="50"/>
+        <v>3.3590071534457918E-5</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="50"/>
+        <v>9.6535492862081561E-5</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="50"/>
+        <v>1.9983673229914465E-5</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="50"/>
+        <v>5.3854190765482678E-5</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="50"/>
+        <v>6.9818300306724747E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
         <f t="shared" si="29"/>
-        <v>4.0392485702293687E-5</v>
-      </c>
-      <c r="C40">
+        <v>2.0433873641578584E-5</v>
+      </c>
+      <c r="B41">
         <f t="shared" si="30"/>
-        <v>4.4048869346669951E-5</v>
-      </c>
-      <c r="D40">
+        <v>1.1529434374677711E-5</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="31"/>
-        <v>6.7010519281080033E-5</v>
-      </c>
-      <c r="E40">
+        <v>1.3181013357192989E-5</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="32"/>
-        <v>3.9629117409362021E-5</v>
-      </c>
-      <c r="F40">
+        <v>1.8351308195875302E-5</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="33"/>
-        <v>7.7245968710347598E-5</v>
-      </c>
-      <c r="G40">
+        <v>2.1084178001525219E-5</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="34"/>
-        <v>3.3590071534457918E-5</v>
-      </c>
-      <c r="H40">
+        <v>1.6951121931895838E-5</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="35"/>
-        <v>9.6535492862081561E-5</v>
-      </c>
-      <c r="I40">
+        <v>7.8883115062730635E-6</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="36"/>
-        <v>1.9983673229914465E-5</v>
-      </c>
-      <c r="J40">
+        <v>1.5282710378071031E-5</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="37"/>
-        <v>5.3854190765482678E-5</v>
-      </c>
-      <c r="K40">
+        <v>6.1922227061451863E-6</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
+        <v>1.2805256437885187E-5</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="39"/>
-        <v>6.9818300306724747E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <f t="shared" si="28"/>
+        <v>6.7933453831672659E-6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:Y41" si="51">SQRT(N13^2+N27^2/2)</f>
         <v>8.669358370721561E-5</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="29"/>
+      <c r="O41">
+        <f t="shared" si="51"/>
         <v>4.8915247377479343E-5</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="30"/>
+      <c r="P41">
+        <f t="shared" si="51"/>
         <v>5.5922303566689734E-5</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="31"/>
+      <c r="Q41">
+        <f t="shared" si="51"/>
         <v>7.7858006813686157E-5</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="32"/>
+      <c r="R41">
+        <f t="shared" si="51"/>
         <v>8.9452591443736268E-5</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="33"/>
+      <c r="S41">
+        <f t="shared" si="51"/>
         <v>7.1917519600581334E-5</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="34"/>
+      <c r="T41">
+        <f t="shared" si="51"/>
         <v>3.3467271349185312E-5</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="35"/>
+      <c r="U41">
+        <f t="shared" si="51"/>
         <v>6.4839048859464306E-5</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="36"/>
+      <c r="V41">
+        <f t="shared" si="51"/>
         <v>2.6271375996795449E-5</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="37"/>
+      <c r="W41">
+        <f t="shared" si="51"/>
         <v>5.4328101972367852E-5</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="38"/>
+      <c r="X41">
+        <f t="shared" si="51"/>
         <v>2.8821723524279389E-5</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y41">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="N43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>0</v>
       </c>
       <c r="B44" s="1">
-        <v>5.2404999999999997E-5</v>
+        <v>1.0987E-5</v>
       </c>
       <c r="C44" s="1">
-        <v>5.5208999999999999E-5</v>
-      </c>
-      <c r="D44">
-        <v>1.188E-4</v>
+        <v>1.3934000000000001E-5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.5404999999999997E-5</v>
       </c>
       <c r="E44" s="1">
-        <v>2.9779999999999999E-5</v>
+        <v>7.3680999999999998E-6</v>
       </c>
       <c r="F44" s="1">
-        <v>4.2252000000000001E-5</v>
+        <v>1.1357E-5</v>
       </c>
       <c r="G44" s="1">
-        <v>3.0936000000000003E-5</v>
+        <v>5.3303999999999998E-6</v>
       </c>
       <c r="H44" s="1">
-        <v>2.8666E-5</v>
+        <v>6.6900999999999997E-6</v>
       </c>
       <c r="I44" s="1">
-        <v>4.1102000000000001E-5</v>
+        <v>8.3309000000000001E-6</v>
       </c>
       <c r="J44" s="1">
-        <v>4.8406999999999999E-5</v>
+        <v>1.3156000000000001E-5</v>
       </c>
       <c r="K44" s="1">
-        <v>5.2317000000000001E-5</v>
+        <v>9.9910999999999999E-6</v>
       </c>
       <c r="L44" s="1">
-        <v>5.6106999999999997E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1968999999999999E-5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>4.6615E-5</v>
+      </c>
+      <c r="P44" s="1">
+        <v>5.9116000000000001E-5</v>
+      </c>
+      <c r="Q44">
+        <v>1.5020999999999999E-4</v>
+      </c>
+      <c r="R44" s="1">
+        <v>3.1260000000000002E-5</v>
+      </c>
+      <c r="S44" s="1">
+        <v>4.8183999999999998E-5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>2.2614999999999999E-5</v>
+      </c>
+      <c r="U44" s="1">
+        <v>2.8384000000000001E-5</v>
+      </c>
+      <c r="V44" s="1">
+        <v>3.5345000000000001E-5</v>
+      </c>
+      <c r="W44" s="1">
+        <v>5.5816000000000002E-5</v>
+      </c>
+      <c r="X44" s="1">
+        <v>4.2388999999999997E-5</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>9.3207000000000004E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
-        <v>2.9556999999999998E-5</v>
+        <v>8.4237000000000003E-6</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>3.3825999999999998E-5</v>
+        <v>6.3196999999999998E-6</v>
       </c>
       <c r="D45" s="1">
-        <v>4.5982000000000001E-5</v>
+        <v>1.8022000000000001E-5</v>
       </c>
       <c r="E45" s="1">
-        <v>3.5790000000000001E-5</v>
+        <v>9.1701000000000005E-6</v>
       </c>
       <c r="F45" s="1">
-        <v>4.1656999999999998E-5</v>
+        <v>1.4683E-5</v>
       </c>
       <c r="G45" s="1">
-        <v>3.9125999999999998E-5</v>
+        <v>7.9926000000000004E-6</v>
       </c>
       <c r="H45" s="1">
-        <v>2.7563E-5</v>
+        <v>5.1069000000000002E-6</v>
       </c>
       <c r="I45" s="1">
-        <v>3.5416000000000001E-5</v>
+        <v>4.9711999999999999E-6</v>
       </c>
       <c r="J45" s="1">
-        <v>4.5998000000000002E-5</v>
+        <v>1.4516E-5</v>
       </c>
       <c r="K45" s="1">
-        <v>4.1684000000000003E-5</v>
+        <v>6.5199E-6</v>
       </c>
       <c r="L45" s="1">
-        <v>4.5413E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9828999999999999E-5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>3.5738999999999998E-5</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2.6812E-5</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>7.6462000000000001E-5</v>
+      </c>
+      <c r="R45" s="1">
+        <v>3.8906000000000003E-5</v>
+      </c>
+      <c r="S45" s="1">
+        <v>6.2292999999999995E-5</v>
+      </c>
+      <c r="T45" s="1">
+        <v>3.3909999999999999E-5</v>
+      </c>
+      <c r="U45" s="1">
+        <v>2.1667000000000001E-5</v>
+      </c>
+      <c r="V45" s="1">
+        <v>2.1090999999999998E-5</v>
+      </c>
+      <c r="W45" s="1">
+        <v>6.1586000000000003E-5</v>
+      </c>
+      <c r="X45" s="1">
+        <v>2.7662E-5</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>8.4126000000000001E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
-        <v>4.3293E-5</v>
+        <v>1.5058999999999999E-5</v>
       </c>
       <c r="B46" s="1">
-        <v>5.0821E-5</v>
+        <v>1.1216999999999999E-5</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>4.4200999999999999E-5</v>
+        <v>1.6807999999999999E-5</v>
       </c>
       <c r="E46" s="1">
-        <v>2.9011999999999999E-5</v>
+        <v>6.8009000000000004E-6</v>
       </c>
       <c r="F46" s="1">
-        <v>3.9622000000000001E-5</v>
+        <v>9.781E-6</v>
       </c>
       <c r="G46" s="1">
-        <v>3.1522000000000001E-5</v>
+        <v>6.2245000000000003E-6</v>
       </c>
       <c r="H46" s="1">
-        <v>2.7308999999999999E-5</v>
+        <v>5.9219E-6</v>
       </c>
       <c r="I46" s="1">
-        <v>6.0019000000000003E-5</v>
+        <v>1.9250999999999999E-5</v>
       </c>
       <c r="J46" s="1">
-        <v>6.7974999999999999E-5</v>
+        <v>2.8759999999999999E-5</v>
       </c>
       <c r="K46" s="1">
+        <v>1.0572E-5</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.6629999999999998E-5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>6.3891000000000002E-5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>4.7590999999999999E-5</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>7.1310000000000007E-5</v>
+      </c>
+      <c r="R46" s="1">
+        <v>2.8853999999999999E-5</v>
+      </c>
+      <c r="S46" s="1">
+        <v>4.1496999999999999E-5</v>
+      </c>
+      <c r="T46" s="1">
+        <v>2.6407999999999999E-5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>2.5125000000000001E-5</v>
+      </c>
+      <c r="V46" s="1">
+        <v>8.1675999999999995E-5</v>
+      </c>
+      <c r="W46">
+        <v>1.2202E-4</v>
+      </c>
+      <c r="X46" s="1">
+        <v>4.4851999999999997E-5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>7.0555999999999993E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <v>4.8405000000000002E-5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.7263999999999999E-5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>9.2173999999999992E-6</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.0986999999999997E-6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.226E-5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.1447000000000001E-6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8.1419999999999993E-6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>8.6157999999999997E-6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.5393E-5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.0618999999999999E-5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2.0917999999999999E-5</v>
+      </c>
+      <c r="N47">
+        <v>2.0536999999999999E-4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>7.3246999999999999E-5</v>
+      </c>
+      <c r="P47" s="1">
+        <v>3.9106000000000001E-5</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>2.5874999999999999E-5</v>
+      </c>
+      <c r="S47" s="1">
+        <v>5.2014E-5</v>
+      </c>
+      <c r="T47" s="1">
+        <v>2.1827E-5</v>
+      </c>
+      <c r="U47" s="1">
+        <v>3.4544E-5</v>
+      </c>
+      <c r="V47" s="1">
+        <v>3.6554000000000003E-5</v>
+      </c>
+      <c r="W47" s="1">
+        <v>6.5308000000000006E-5</v>
+      </c>
+      <c r="X47" s="1">
+        <v>4.5050999999999999E-5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>8.8745000000000005E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <v>6.1956999999999998E-6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.3730000000000001E-5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.1775000000000002E-6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.1633E-5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.0420000000000001E-5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4.3506999999999997E-6</v>
+      </c>
+      <c r="H48" s="1">
+        <v>6.9310000000000002E-6</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5.4689999999999996E-6</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1.1066999999999999E-5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>6.5083E-6</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2.3428999999999999E-5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2.6285999999999999E-5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>5.8251999999999997E-5</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1.7723E-5</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4.9357000000000002E-5</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>8.6636000000000002E-5</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.8459000000000001E-5</v>
+      </c>
+      <c r="U48" s="1">
+        <v>2.9405999999999999E-5</v>
+      </c>
+      <c r="V48" s="1">
+        <v>2.3203000000000001E-5</v>
+      </c>
+      <c r="W48" s="1">
+        <v>4.6953000000000003E-5</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2.7611999999999999E-5</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>9.9399000000000002E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <v>5.9885000000000003E-6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.2286999999999999E-5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.6655999999999998E-6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9.8395999999999998E-6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.0200999999999999E-5</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6.3486999999999999E-6</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7.6414999999999996E-6</v>
+      </c>
+      <c r="J49" s="1">
+        <v>9.8505E-6</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9.7581000000000006E-6</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.5398999999999999E-5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2.5406999999999999E-5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>5.2130999999999999E-5</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1.9794000000000001E-5</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>4.1746000000000003E-5</v>
+      </c>
+      <c r="R49" s="1">
+        <v>4.3278999999999997E-5</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>2.6934999999999999E-5</v>
+      </c>
+      <c r="U49" s="1">
+        <v>5.1418999999999997E-5</v>
+      </c>
+      <c r="V49" s="1">
+        <v>3.2419999999999998E-5</v>
+      </c>
+      <c r="W49" s="1">
+        <v>4.1792000000000002E-5</v>
+      </c>
+      <c r="X49" s="1">
+        <v>4.1399999999999997E-5</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>6.5331000000000002E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <v>3.5754999999999999E-6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.1175000000000001E-5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.5387000000000003E-6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.1148999999999999E-5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8.1207E-6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.2326E-5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.7815000000000001E-5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7.5185000000000001E-6</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.1515000000000001E-5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.1163E-5</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3.3828000000000002E-5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1.517E-5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>4.7411999999999999E-5</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1.9256E-5</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>4.7299999999999998E-5</v>
+      </c>
+      <c r="R50" s="1">
+        <v>3.4452999999999997E-5</v>
+      </c>
+      <c r="S50" s="1">
+        <v>5.2293000000000002E-5</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>7.5582999999999998E-5</v>
+      </c>
+      <c r="V50" s="1">
+        <v>3.1897999999999999E-5</v>
+      </c>
+      <c r="W50" s="1">
+        <v>4.8854999999999999E-5</v>
+      </c>
+      <c r="X50" s="1">
+        <v>4.7361999999999998E-5</v>
+      </c>
+      <c r="Y50">
+        <v>1.4352000000000001E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
+        <v>7.3814000000000002E-6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9.7605000000000008E-6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.3467999999999996E-6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.3511E-5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9.0481999999999992E-6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.5811000000000002E-5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.5098E-5</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>5.9499000000000004E-6</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.131E-5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.1079E-5</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2.1831000000000002E-5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3.1316999999999998E-5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>4.1409999999999998E-5</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1.8442000000000001E-5</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>5.7321000000000002E-5</v>
+      </c>
+      <c r="R51" s="1">
+        <v>3.8387999999999999E-5</v>
+      </c>
+      <c r="S51" s="1">
+        <v>6.7082000000000006E-5</v>
+      </c>
+      <c r="T51" s="1">
+        <v>6.4053999999999994E-5</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>2.5242999999999999E-5</v>
+      </c>
+      <c r="W51" s="1">
         <v>4.7985999999999998E-5</v>
       </c>
-      <c r="L46" s="1">
-        <v>4.7587999999999999E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
-        <v>9.0823999999999996E-5</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6.3266E-5</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3.6072999999999998E-5</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2.9247E-5</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4.1236999999999998E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3.1872999999999998E-5</v>
-      </c>
-      <c r="H47" s="1">
-        <v>3.0266000000000001E-5</v>
-      </c>
-      <c r="I47" s="1">
-        <v>3.6940000000000002E-5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>4.6038999999999997E-5</v>
-      </c>
-      <c r="K47" s="1">
-        <v>4.4465000000000002E-5</v>
-      </c>
-      <c r="L47" s="1">
-        <v>5.1446999999999997E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1">
-        <v>2.0653E-5</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4.4317000000000003E-5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2.4661E-5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3.0278E-5</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>4.4008999999999998E-5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3.1671000000000002E-5</v>
-      </c>
-      <c r="H48" s="1">
-        <v>3.184E-5</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2.8957000000000001E-5</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3.1047000000000003E-5</v>
-      </c>
-      <c r="K48" s="1">
-        <v>3.1922999999999999E-5</v>
-      </c>
-      <c r="L48" s="1">
-        <v>5.1446999999999997E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
-        <v>2.2235999999999999E-5</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4.6270999999999998E-5</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.8997999999999999E-5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.0834999999999999E-5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3.6242000000000003E-5</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>3.341E-5</v>
-      </c>
-      <c r="H49" s="1">
-        <v>3.6261999999999999E-5</v>
-      </c>
-      <c r="I49" s="1">
-        <v>3.1103999999999999E-5</v>
-      </c>
-      <c r="J49" s="1">
-        <v>3.2500999999999999E-5</v>
-      </c>
-      <c r="K49" s="1">
-        <v>3.8438E-5</v>
-      </c>
-      <c r="L49" s="1">
-        <v>4.6397000000000003E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
-        <v>1.7676000000000002E-5</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4.6020999999999999E-5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2.4532000000000002E-5</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2.8413999999999999E-5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2.9079000000000001E-5</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3.7404999999999998E-5</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3.6439000000000001E-5</v>
-      </c>
-      <c r="I50" s="1">
-        <v>2.5398999999999999E-5</v>
-      </c>
-      <c r="J50" s="1">
-        <v>3.1010000000000003E-5</v>
-      </c>
-      <c r="K50" s="1">
-        <v>4.2137E-5</v>
-      </c>
-      <c r="L50" s="1">
-        <v>4.2169999999999998E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
-        <v>2.1579000000000001E-5</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3.8250999999999997E-5</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2.3391E-5</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3.2966000000000003E-5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3.2756000000000003E-5</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4.1627E-5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3.8575999999999998E-5</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>2.7946999999999999E-5</v>
-      </c>
-      <c r="J51" s="1">
-        <v>3.1600000000000002E-5</v>
-      </c>
-      <c r="K51" s="1">
-        <v>3.4445E-5</v>
-      </c>
-      <c r="L51" s="1">
-        <v>4.7757999999999999E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="X51" s="1">
+        <v>4.7002000000000002E-5</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>9.2621999999999995E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
-        <v>3.5181000000000001E-5</v>
+        <v>1.0925E-5</v>
       </c>
       <c r="B52" s="1">
-        <v>4.9079000000000002E-5</v>
+        <v>1.0920999999999999E-5</v>
       </c>
       <c r="C52" s="1">
-        <v>5.8601999999999999E-5</v>
+        <v>1.8694000000000001E-5</v>
       </c>
       <c r="D52" s="1">
-        <v>4.4879999999999997E-5</v>
+        <v>1.8805E-5</v>
       </c>
       <c r="E52" s="1">
-        <v>3.2419999999999998E-5</v>
+        <v>7.5602000000000001E-6</v>
       </c>
       <c r="F52" s="1">
-        <v>4.1829000000000002E-5</v>
+        <v>1.0093E-5</v>
       </c>
       <c r="G52" s="1">
-        <v>3.0697000000000001E-5</v>
+        <v>5.5207000000000004E-6</v>
       </c>
       <c r="H52" s="1">
-        <v>2.9138000000000001E-5</v>
+        <v>7.4016000000000004E-6</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>6.8019E-5</v>
+        <v>1.7968000000000001E-5</v>
       </c>
       <c r="K52" s="1">
-        <v>4.0022999999999999E-5</v>
+        <v>7.4988000000000001E-6</v>
       </c>
       <c r="L52" s="1">
-        <v>4.9500999999999999E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1.7439999999999999E-5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4.6350000000000002E-5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>4.6334000000000001E-5</v>
+      </c>
+      <c r="P52" s="1">
+        <v>7.9314000000000007E-5</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>7.9783999999999994E-5</v>
+      </c>
+      <c r="R52" s="1">
+        <v>3.2075E-5</v>
+      </c>
+      <c r="S52" s="1">
+        <v>4.2821999999999998E-5</v>
+      </c>
+      <c r="T52" s="1">
+        <v>2.3422E-5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>3.1402000000000002E-5</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>7.6230999999999996E-5</v>
+      </c>
+      <c r="X52" s="1">
+        <v>3.1814999999999999E-5</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>7.3990000000000001E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
-        <v>3.3488999999999997E-5</v>
+        <v>1.0949E-5</v>
       </c>
       <c r="B53" s="1">
-        <v>6.4635999999999996E-5</v>
+        <v>2.4609000000000001E-5</v>
       </c>
       <c r="C53" s="1">
-        <v>5.0926E-5</v>
+        <v>9.7650000000000005E-6</v>
       </c>
       <c r="D53" s="1">
-        <v>4.5343000000000003E-5</v>
+        <v>1.4912000000000001E-5</v>
       </c>
       <c r="E53" s="1">
-        <v>3.1708000000000002E-5</v>
+        <v>8.7160999999999994E-6</v>
       </c>
       <c r="F53" s="1">
-        <v>4.1193999999999999E-5</v>
+        <v>9.3314000000000001E-6</v>
       </c>
       <c r="G53" s="1">
-        <v>3.9953000000000002E-5</v>
+        <v>1.7149000000000001E-5</v>
       </c>
       <c r="H53" s="1">
-        <v>3.2891000000000001E-5</v>
+        <v>1.0175E-5</v>
       </c>
       <c r="I53" s="1">
-        <v>6.4261E-5</v>
+        <v>1.2736E-5</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>4.0133999999999999E-5</v>
+        <v>6.5858999999999999E-6</v>
       </c>
       <c r="L53" s="1">
-        <v>4.6751E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1.4936999999999999E-5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4.6453999999999999E-5</v>
+      </c>
+      <c r="O53">
+        <v>1.0441E-4</v>
+      </c>
+      <c r="P53" s="1">
+        <v>4.1428999999999999E-5</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>6.3267000000000003E-5</v>
+      </c>
+      <c r="R53" s="1">
+        <v>3.6979E-5</v>
+      </c>
+      <c r="S53" s="1">
+        <v>3.9589999999999999E-5</v>
+      </c>
+      <c r="T53" s="1">
+        <v>7.2757999999999997E-5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>4.3167999999999997E-5</v>
+      </c>
+      <c r="V53" s="1">
+        <v>5.4036000000000002E-5</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>2.7942000000000001E-5</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>6.3372000000000002E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
-        <v>2.7423000000000002E-5</v>
+        <v>6.2084999999999999E-6</v>
       </c>
       <c r="B54" s="1">
-        <v>4.5475000000000001E-5</v>
+        <v>8.3594E-6</v>
       </c>
       <c r="C54" s="1">
-        <v>3.6402999999999997E-5</v>
+        <v>7.5232999999999996E-6</v>
       </c>
       <c r="D54" s="1">
-        <v>3.7602999999999999E-5</v>
+        <v>1.1663E-5</v>
       </c>
       <c r="E54" s="1">
-        <v>2.9984E-5</v>
+        <v>7.3973999999999997E-6</v>
       </c>
       <c r="F54" s="1">
-        <v>4.2746E-5</v>
+        <v>1.3562E-5</v>
       </c>
       <c r="G54" s="1">
-        <v>3.9400999999999998E-5</v>
+        <v>6.8990999999999997E-6</v>
       </c>
       <c r="H54" s="1">
-        <v>3.1236999999999999E-5</v>
+        <v>1.6384000000000001E-5</v>
       </c>
       <c r="I54" s="1">
-        <v>2.8102E-5</v>
+        <v>4.3463000000000002E-6</v>
       </c>
       <c r="J54" s="1">
-        <v>3.4656000000000002E-5</v>
+        <v>9.2516999999999999E-6</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>4.4416000000000003E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1.1931E-5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2.6341000000000001E-5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>3.5466000000000002E-5</v>
+      </c>
+      <c r="P54" s="1">
+        <v>3.1918999999999997E-5</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>4.9481000000000003E-5</v>
+      </c>
+      <c r="R54" s="1">
+        <v>3.1384000000000003E-5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5.7537000000000002E-5</v>
+      </c>
+      <c r="T54" s="1">
+        <v>2.9271000000000001E-5</v>
+      </c>
+      <c r="U54" s="1">
+        <v>6.9511000000000006E-5</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1.844E-5</v>
+      </c>
+      <c r="W54" s="1">
+        <v>3.9252000000000003E-5</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>5.0621000000000002E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
-        <v>3.5642000000000002E-5</v>
+        <v>1.4956999999999999E-5</v>
       </c>
       <c r="B55" s="1">
-        <v>4.5799E-5</v>
+        <v>1.0088000000000001E-5</v>
       </c>
       <c r="C55" s="1">
-        <v>3.2304000000000001E-5</v>
+        <v>9.5007000000000004E-6</v>
       </c>
       <c r="D55" s="1">
-        <v>4.0367999999999997E-5</v>
+        <v>1.501E-5</v>
       </c>
       <c r="E55" s="1">
-        <v>4.0377000000000003E-5</v>
+        <v>1.5362E-5</v>
       </c>
       <c r="F55" s="1">
-        <v>4.4400000000000002E-5</v>
+        <v>1.3220999999999999E-5</v>
       </c>
       <c r="G55" s="1">
-        <v>3.1072999999999999E-5</v>
+        <v>6.3762E-6</v>
       </c>
       <c r="H55" s="1">
-        <v>3.4688999999999999E-5</v>
+        <v>1.3602E-5</v>
       </c>
       <c r="I55" s="1">
-        <v>3.3182999999999997E-5</v>
+        <v>5.2024000000000004E-6</v>
       </c>
       <c r="J55" s="1">
-        <v>3.9310999999999997E-5</v>
+        <v>9.4282000000000006E-6</v>
       </c>
       <c r="K55" s="1">
-        <v>3.9923999999999999E-5</v>
+        <v>5.6548999999999998E-6</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="N55" s="1">
+        <v>6.3458000000000001E-5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>4.2799999999999997E-5</v>
+      </c>
+      <c r="P55" s="1">
+        <v>4.0308000000000001E-5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>6.3683000000000007E-5</v>
+      </c>
+      <c r="R55" s="1">
+        <v>6.5177000000000003E-5</v>
+      </c>
+      <c r="S55" s="1">
+        <v>5.6093E-5</v>
+      </c>
+      <c r="T55" s="1">
+        <v>2.7052000000000001E-5</v>
+      </c>
+      <c r="U55" s="1">
+        <v>5.7710000000000001E-5</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2.2072000000000001E-5</v>
+      </c>
+      <c r="W55" s="1">
+        <v>4.0000999999999999E-5</v>
+      </c>
+      <c r="X55" s="1">
+        <v>2.3992E-5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <f>A30-A44</f>
         <v>0</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:L58" si="40">B30-B44</f>
-        <v>1.442655185718163E-6</v>
+        <f t="shared" ref="B58:L58" si="52">B30-B44</f>
+        <v>1.705014044272091E-6</v>
       </c>
       <c r="C58">
-        <f t="shared" si="40"/>
-        <v>1.2862078913882353E-5</v>
+        <f t="shared" si="52"/>
+        <v>2.1105071675636054E-6</v>
       </c>
       <c r="D58">
-        <f t="shared" si="40"/>
-        <v>8.4490348087409224E-5</v>
+        <f t="shared" si="52"/>
+        <v>1.2510994560793592E-5</v>
       </c>
       <c r="E58">
-        <f t="shared" si="40"/>
-        <v>1.2801541894640215E-5</v>
+        <f t="shared" si="52"/>
+        <v>2.6684656756930568E-6</v>
       </c>
       <c r="F58">
-        <f t="shared" si="40"/>
-        <v>2.2923110198641022E-5</v>
+        <f t="shared" si="52"/>
+        <v>4.0049207953465268E-6</v>
       </c>
       <c r="G58">
-        <f t="shared" si="40"/>
-        <v>-2.087947977376362E-6</v>
+        <f t="shared" si="52"/>
+        <v>1.4691510697398254E-6</v>
       </c>
       <c r="H58">
-        <f t="shared" si="40"/>
-        <v>4.7130478722805962E-6</v>
+        <f t="shared" si="52"/>
+        <v>1.1774170333466713E-6</v>
       </c>
       <c r="I58">
-        <f t="shared" si="40"/>
-        <v>8.458226073773667E-7</v>
+        <f t="shared" si="52"/>
+        <v>1.5562966072289665E-6</v>
       </c>
       <c r="J58">
-        <f t="shared" si="40"/>
-        <v>2.7522266323993944E-5</v>
+        <f t="shared" si="52"/>
+        <v>4.7406997027384935E-6</v>
       </c>
       <c r="K58">
-        <f t="shared" si="40"/>
-        <v>9.8182045130080028E-7</v>
+        <f t="shared" si="52"/>
+        <v>2.5715524567863485E-6</v>
       </c>
       <c r="L58">
-        <f t="shared" si="40"/>
-        <v>7.2626465893682837E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="52"/>
+        <v>8.3737688996900923E-6</v>
+      </c>
+      <c r="N58">
+        <f>N30-N44</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58:V58" si="53">O30-O44</f>
+        <v>7.23265518571816E-6</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="53"/>
+        <v>8.9550789138823509E-6</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="53"/>
+        <v>5.3080348087409238E-5</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="53"/>
+        <v>1.1321541894640213E-5</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="53"/>
+        <v>1.6991110198641025E-5</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="53"/>
+        <v>6.2330520226236419E-6</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="53"/>
+        <v>4.9950478722805945E-6</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="53"/>
+        <v>6.602822607377366E-6</v>
+      </c>
+      <c r="W58">
+        <f>W30-W44</f>
+        <v>2.0113266323993941E-5</v>
+      </c>
+      <c r="X58">
+        <f t="shared" ref="X58:Y58" si="54">X30-X44</f>
+        <v>1.0909820451300804E-5</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="54"/>
+        <v>3.552646589368283E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <f t="shared" ref="A59:L59" si="41">A31-A45</f>
-        <v>1.5799469058999736E-5</v>
+        <f t="shared" ref="A59:L59" si="55">A31-A45</f>
+        <v>2.2669222807655134E-6</v>
       </c>
       <c r="B59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <f t="shared" si="41"/>
-        <v>7.2997685176907689E-7</v>
+        <f t="shared" si="55"/>
+        <v>1.8252218541370937E-6</v>
       </c>
       <c r="D59">
-        <f t="shared" si="41"/>
-        <v>5.8541453946949137E-5</v>
+        <f t="shared" si="55"/>
+        <v>6.6144143596425158E-6</v>
       </c>
       <c r="E59">
-        <f t="shared" si="41"/>
-        <v>1.6719689658243071E-5</v>
+        <f t="shared" si="55"/>
+        <v>3.206552545114934E-6</v>
       </c>
       <c r="F59">
-        <f t="shared" si="41"/>
-        <v>4.4131113104205758E-5</v>
+        <f t="shared" si="55"/>
+        <v>5.5374521737274734E-6</v>
       </c>
       <c r="G59">
-        <f t="shared" si="41"/>
-        <v>3.0308147871729017E-6</v>
+        <f t="shared" si="55"/>
+        <v>1.9438565364117605E-6</v>
       </c>
       <c r="H59">
-        <f t="shared" si="41"/>
-        <v>-1.9441277718944073E-6</v>
+        <f t="shared" si="55"/>
+        <v>9.3152609294839366E-7</v>
       </c>
       <c r="I59">
-        <f t="shared" si="41"/>
-        <v>-1.221694265072393E-5</v>
+        <f t="shared" si="55"/>
+        <v>4.9687025626957412E-7</v>
       </c>
       <c r="J59">
-        <f t="shared" si="41"/>
-        <v>3.7425953502576227E-5</v>
+        <f t="shared" si="55"/>
+        <v>5.1472144116876318E-6</v>
       </c>
       <c r="K59">
-        <f t="shared" si="41"/>
-        <v>-7.3507491756169449E-6</v>
+        <f t="shared" si="55"/>
+        <v>1.5725248260332958E-6</v>
       </c>
       <c r="L59">
-        <f t="shared" si="41"/>
-        <v>7.1781311917089226E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="55"/>
+        <v>7.7939642243550721E-6</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59:V59" si="56">N31-N45</f>
+        <v>9.6174690589997369E-6</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="56"/>
+        <v>7.7439768517690745E-6</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="56"/>
+        <v>2.8061453946949137E-5</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="56"/>
+        <v>1.3603689658243069E-5</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="56"/>
+        <v>2.3495113104205761E-5</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="56"/>
+        <v>8.2468147871729005E-6</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="56"/>
+        <v>3.9518722281055918E-6</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="56"/>
+        <v>2.1080573492760721E-6</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59:Y59" si="57">W31-W45</f>
+        <v>2.1837953502576226E-5</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="57"/>
+        <v>6.6712508243830574E-6</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="57"/>
+        <v>3.3068311917089219E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <f t="shared" ref="A60:L60" si="42">A32-A46</f>
-        <v>3.9341714893318298E-5</v>
+        <f t="shared" ref="A60:L60" si="58">A32-A46</f>
+        <v>4.4181890874941237E-6</v>
       </c>
       <c r="B60">
-        <f t="shared" si="42"/>
-        <v>7.4085075713336174E-6</v>
+        <f t="shared" si="58"/>
+        <v>2.5078265562811388E-6</v>
       </c>
       <c r="C60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="42"/>
-        <v>5.3662440696717788E-5</v>
+        <f t="shared" si="58"/>
+        <v>6.2586341822989029E-6</v>
       </c>
       <c r="E60">
-        <f t="shared" si="42"/>
-        <v>8.5134208723233387E-6</v>
+        <f t="shared" si="58"/>
+        <v>2.0439265218996803E-6</v>
       </c>
       <c r="F60">
-        <f t="shared" si="42"/>
-        <v>1.5219529085903505E-5</v>
+        <f t="shared" si="58"/>
+        <v>3.1452723690938854E-6</v>
       </c>
       <c r="G60">
-        <f t="shared" si="42"/>
-        <v>1.3169316627383568E-6</v>
+        <f t="shared" si="58"/>
+        <v>1.5157104218813066E-6</v>
       </c>
       <c r="H60">
-        <f t="shared" si="42"/>
-        <v>5.6202128792201826E-6</v>
+        <f t="shared" si="58"/>
+        <v>1.8395899086773303E-6</v>
       </c>
       <c r="I60">
-        <f t="shared" si="42"/>
-        <v>5.05547798304824E-5</v>
+        <f t="shared" si="58"/>
+        <v>6.8114898465208047E-6</v>
       </c>
       <c r="J60">
-        <f t="shared" si="42"/>
-        <v>1.003363809387232E-4</v>
+        <f t="shared" si="58"/>
+        <v>1.0911372937547801E-5</v>
       </c>
       <c r="K60">
-        <f t="shared" si="42"/>
-        <v>1.0186982749726697E-5</v>
+        <f t="shared" si="58"/>
+        <v>3.1395035280599338E-6</v>
       </c>
       <c r="L60">
-        <f t="shared" si="42"/>
-        <v>5.0555979701482456E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="58"/>
+        <v>6.5027578598510432E-6</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:V60" si="59">N32-N46</f>
+        <v>1.8743714893318297E-5</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="59"/>
+        <v>1.0638507571333619E-5</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="59"/>
+        <v>2.6553440696717781E-5</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="59"/>
+        <v>8.6714208723233396E-6</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="59"/>
+        <v>1.3344529085903507E-5</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="59"/>
+        <v>6.430931662738359E-6</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="59"/>
+        <v>7.8042128792201807E-6</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="59"/>
+        <v>2.8897779830482407E-5</v>
+      </c>
+      <c r="W60">
+        <f t="shared" ref="W60:Y60" si="60">W32-W46</f>
+        <v>4.6291380938723201E-5</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="60"/>
+        <v>1.3320982749726698E-5</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="60"/>
+        <v>2.7587979701482461E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <f t="shared" ref="A61:L61" si="43">A33-A47</f>
-        <v>1.9456985915082336E-4</v>
+        <f t="shared" ref="A61:L61" si="61">A33-A47</f>
+        <v>1.8862977704848536E-5</v>
       </c>
       <c r="B61">
-        <f t="shared" si="43"/>
-        <v>1.9729496627829152E-5</v>
+        <f t="shared" si="61"/>
+        <v>2.2982261578277462E-6</v>
       </c>
       <c r="C61">
-        <f t="shared" si="43"/>
-        <v>1.8319883578828585E-5</v>
+        <f t="shared" si="61"/>
+        <v>3.6031256089600339E-6</v>
       </c>
       <c r="D61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="43"/>
-        <v>5.2763562609431112E-6</v>
+        <f t="shared" si="61"/>
+        <v>2.0385331071439769E-6</v>
       </c>
       <c r="F61">
-        <f t="shared" si="43"/>
-        <v>2.9260037219446317E-5</v>
+        <f t="shared" si="61"/>
+        <v>4.356311023810309E-6</v>
       </c>
       <c r="G61">
-        <f t="shared" si="43"/>
-        <v>-3.6617422314247028E-6</v>
+        <f t="shared" si="61"/>
+        <v>1.5047572246537538E-6</v>
       </c>
       <c r="H61">
-        <f t="shared" si="43"/>
-        <v>9.7196816955769773E-6</v>
+        <f t="shared" si="61"/>
+        <v>1.2827155591030973E-6</v>
       </c>
       <c r="I61">
-        <f t="shared" si="43"/>
-        <v>1.3205863827438447E-5</v>
+        <f t="shared" si="61"/>
+        <v>3.2036934536129776E-6</v>
       </c>
       <c r="J61">
-        <f t="shared" si="43"/>
-        <v>4.491337748305429E-5</v>
+        <f t="shared" si="61"/>
+        <v>6.0446809611021172E-6</v>
       </c>
       <c r="K61">
-        <f t="shared" si="43"/>
-        <v>1.4941365454385434E-5</v>
+        <f t="shared" si="61"/>
+        <v>3.3832146194807342E-6</v>
       </c>
       <c r="L61">
-        <f t="shared" si="43"/>
-        <v>7.0849872253545392E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="61"/>
+        <v>7.9076492294622954E-6</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61:V61" si="62">N33-N47</f>
+        <v>8.002385915082335E-5</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="62"/>
+        <v>9.7484966278291543E-6</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="62"/>
+        <v>1.5286883578828582E-5</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="62"/>
+        <v>8.6483562609431121E-6</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="62"/>
+        <v>1.8483037219446315E-5</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="62"/>
+        <v>6.3842577685752956E-6</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="62"/>
+        <v>5.4416816955769786E-6</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="62"/>
+        <v>1.3591863827438446E-5</v>
+      </c>
+      <c r="W61">
+        <f t="shared" ref="W61:Y61" si="63">W33-W47</f>
+        <v>2.5644377483054282E-5</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="63"/>
+        <v>1.4355365454385436E-5</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="63"/>
+        <v>3.3551872253545384E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <f t="shared" ref="A62:L62" si="44">A34-A48</f>
-        <v>1.5915177155554257E-5</v>
+        <f t="shared" ref="A62:L62" si="64">A34-A48</f>
+        <v>2.4235020141078041E-6</v>
       </c>
       <c r="B62">
-        <f t="shared" si="44"/>
-        <v>3.4713216509256749E-5</v>
+        <f t="shared" si="64"/>
+        <v>4.897600670778832E-6</v>
       </c>
       <c r="C62">
-        <f t="shared" si="44"/>
-        <v>-2.8141323032729892E-7</v>
+        <f t="shared" si="64"/>
+        <v>1.568823709120468E-6</v>
       </c>
       <c r="D62">
-        <f t="shared" si="44"/>
-        <v>3.8525462300999079E-5</v>
+        <f t="shared" si="64"/>
+        <v>4.5841315873831445E-6</v>
       </c>
       <c r="E62">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="44"/>
-        <v>7.6434386406228229E-5</v>
+        <f t="shared" si="64"/>
+        <v>7.968778425638539E-6</v>
       </c>
       <c r="G62">
-        <f t="shared" si="44"/>
-        <v>-8.4258670571665719E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.1282303778201092E-6</v>
       </c>
       <c r="H62">
-        <f t="shared" si="44"/>
-        <v>6.2883115650955596E-6</v>
+        <f t="shared" si="64"/>
+        <v>2.0559292209575121E-6</v>
       </c>
       <c r="I62">
-        <f t="shared" si="44"/>
-        <v>1.0809096084431289E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.611003192266231E-6</v>
       </c>
       <c r="J62">
-        <f t="shared" si="44"/>
-        <v>3.4361329088312595E-5</v>
+        <f t="shared" si="64"/>
+        <v>4.3498910148090506E-6</v>
       </c>
       <c r="K62">
-        <f t="shared" si="44"/>
-        <v>2.5214176197682265E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.6103270909865048E-6</v>
       </c>
       <c r="L62">
-        <f t="shared" si="44"/>
-        <v>8.8382720203699909E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="64"/>
+        <v>9.5291811224846046E-6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62:V62" si="65">N34-N48</f>
+        <v>1.0282177155554258E-5</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="65"/>
+        <v>2.0778216509256754E-5</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="65"/>
+        <v>6.6565867696727014E-6</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="65"/>
+        <v>1.9446462300999074E-5</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="65"/>
+        <v>3.3807386406228219E-5</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="65"/>
+        <v>4.7861329428334297E-6</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="65"/>
+        <v>8.7223115650955604E-6</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="65"/>
+        <v>6.8349096084431284E-6</v>
+      </c>
+      <c r="W62">
+        <f t="shared" ref="W62:Y62" si="66">W34-W48</f>
+        <v>1.8455329088312596E-5</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="66"/>
+        <v>6.8324176197682263E-6</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="66"/>
+        <v>4.0430720203699905E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <f t="shared" ref="A63:L63" si="45">A35-A49</f>
-        <v>1.3042500399251669E-5</v>
+        <f t="shared" ref="A63:L63" si="67">A35-A49</f>
+        <v>2.3267222874677267E-6</v>
       </c>
       <c r="B63">
-        <f t="shared" si="45"/>
-        <v>2.491555703558081E-5</v>
+        <f t="shared" si="67"/>
+        <v>4.4918324030607101E-6</v>
       </c>
       <c r="C63">
-        <f t="shared" si="45"/>
-        <v>-3.4992576936626104E-6</v>
+        <f t="shared" si="67"/>
+        <v>1.3445111988464923E-6</v>
       </c>
       <c r="D63">
-        <f t="shared" si="45"/>
-        <v>2.7828074004053013E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.9874191445047208E-6</v>
       </c>
       <c r="E63">
-        <f t="shared" si="45"/>
-        <v>2.1170592743230112E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.3312778847465287E-6</v>
       </c>
       <c r="F63">
-        <f t="shared" si="45"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="45"/>
-        <v>1.8836827511121794E-7</v>
+        <f t="shared" si="67"/>
+        <v>1.5705113480447036E-6</v>
       </c>
       <c r="H63">
-        <f t="shared" si="45"/>
-        <v>3.2621737387717278E-5</v>
+        <f t="shared" si="67"/>
+        <v>4.1160526067760716E-6</v>
       </c>
       <c r="I63">
-        <f t="shared" si="45"/>
-        <v>1.2164489442144847E-5</v>
+        <f t="shared" si="67"/>
+        <v>2.5569807654130538E-6</v>
       </c>
       <c r="J63">
-        <f t="shared" si="45"/>
-        <v>2.548257510644717E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.8163597184027618E-6</v>
       </c>
       <c r="K63">
-        <f t="shared" si="45"/>
-        <v>1.6752345009294881E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.2503890706991806E-6</v>
       </c>
       <c r="L63">
-        <f t="shared" si="45"/>
-        <v>4.2564912844767442E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="67"/>
+        <v>5.5695239466205635E-6</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:V63" si="68">N35-N49</f>
+        <v>9.8715003992516684E-6</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="68"/>
+        <v>1.9055557035580808E-5</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="68"/>
+        <v>5.7047423063373882E-6</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="68"/>
+        <v>1.6917074004053009E-5</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="68"/>
+        <v>1.4133592743230118E-5</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="68"/>
+        <v>6.6633682751112195E-6</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="68"/>
+        <v>1.746473738771728E-5</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="68"/>
+        <v>1.0848489442144849E-5</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ref="W63:Y63" si="69">W35-W49</f>
+        <v>1.6191575106447167E-5</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="69"/>
+        <v>1.3790345009294884E-5</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="69"/>
+        <v>2.3630912844767443E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <f t="shared" ref="A64:L64" si="46">A36-A50</f>
-        <v>2.4349747751072446E-6</v>
+        <f t="shared" ref="A64:L64" si="70">A36-A50</f>
+        <v>1.1647022132499792E-6</v>
       </c>
       <c r="B64">
-        <f t="shared" si="46"/>
-        <v>9.8959988733300975E-6</v>
+        <f t="shared" si="70"/>
+        <v>2.0047630289774176E-6</v>
       </c>
       <c r="C64">
-        <f t="shared" si="46"/>
-        <v>-3.4691166813733071E-7</v>
+        <f t="shared" si="70"/>
+        <v>1.1617799876852471E-6</v>
       </c>
       <c r="D64">
-        <f t="shared" si="46"/>
-        <v>3.6871504452213582E-5</v>
+        <f t="shared" si="70"/>
+        <v>4.2389409704482587E-6</v>
       </c>
       <c r="E64">
-        <f t="shared" si="46"/>
-        <v>1.6893647399513541E-5</v>
+        <f t="shared" si="70"/>
+        <v>2.7151569084313759E-6</v>
       </c>
       <c r="F64">
-        <f t="shared" si="46"/>
-        <v>3.2136382244675005E-5</v>
+        <f t="shared" si="70"/>
+        <v>4.0650609860984913E-6</v>
       </c>
       <c r="G64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="46"/>
-        <v>6.5913949823148726E-5</v>
+        <f t="shared" si="70"/>
+        <v>6.3098216314649689E-6</v>
       </c>
       <c r="I64">
-        <f t="shared" si="46"/>
-        <v>1.6869904613734666E-5</v>
+        <f t="shared" si="70"/>
+        <v>2.444376361899709E-6</v>
       </c>
       <c r="J64">
-        <f t="shared" si="46"/>
-        <v>3.7417717936520425E-5</v>
+        <f t="shared" si="70"/>
+        <v>4.61356779134465E-6</v>
       </c>
       <c r="K64">
-        <f t="shared" si="46"/>
-        <v>1.4701203116389953E-5</v>
+        <f t="shared" si="70"/>
+        <v>2.2338929513525667E-6</v>
       </c>
       <c r="L64">
-        <f t="shared" si="46"/>
-        <v>1.5951008564431935E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="70"/>
+        <v>1.37084520631273E-5</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ref="N64:V64" si="71">N36-N50</f>
+        <v>4.9409747751072457E-6</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="71"/>
+        <v>8.5049988733300967E-6</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="71"/>
+        <v>4.929088331862671E-6</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="71"/>
+        <v>1.7985504452213587E-5</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="71"/>
+        <v>1.1519647399513545E-5</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="71"/>
+        <v>1.7248382244675001E-5</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="71"/>
+        <v>2.6769949823148722E-5</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="71"/>
+        <v>1.0370904613734666E-5</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ref="W64:Y64" si="72">W36-W50</f>
+        <v>1.9572717936520429E-5</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="72"/>
+        <v>9.4762031163899544E-6</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="72"/>
+        <v>5.8160085644319353E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <f t="shared" ref="A65:L65" si="47">A37-A51</f>
-        <v>2.1145798584955317E-5</v>
+        <f t="shared" ref="A65:L65" si="73">A37-A51</f>
+        <v>2.6889316014171065E-6</v>
       </c>
       <c r="B65">
-        <f t="shared" si="47"/>
-        <v>1.5268224265678602E-5</v>
+        <f t="shared" si="73"/>
+        <v>2.8541021340349874E-6</v>
       </c>
       <c r="C65">
-        <f t="shared" si="47"/>
-        <v>8.0034222320042678E-7</v>
+        <f t="shared" si="73"/>
+        <v>1.3551540440098246E-6</v>
       </c>
       <c r="D65">
-        <f t="shared" si="47"/>
-        <v>4.3567900958986796E-5</v>
+        <f t="shared" si="73"/>
+        <v>4.5282134529197289E-6</v>
       </c>
       <c r="E65">
-        <f t="shared" si="47"/>
-        <v>1.9779033920280276E-5</v>
+        <f t="shared" si="73"/>
+        <v>3.3344262449651616E-6</v>
       </c>
       <c r="F65">
-        <f t="shared" si="47"/>
-        <v>4.7062235657434773E-5</v>
+        <f t="shared" si="73"/>
+        <v>5.0932533172079593E-6</v>
       </c>
       <c r="G65">
-        <f t="shared" si="47"/>
-        <v>4.9619938621032888E-5</v>
+        <f t="shared" si="73"/>
+        <v>5.6899820906816284E-6</v>
       </c>
       <c r="H65">
-        <f t="shared" si="47"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="47"/>
-        <v>4.4565887831888124E-6</v>
+        <f t="shared" si="73"/>
+        <v>1.6876991211243864E-6</v>
       </c>
       <c r="J65">
-        <f t="shared" si="47"/>
-        <v>3.4708308834564612E-5</v>
+        <f t="shared" si="73"/>
+        <v>4.3190182753108323E-6</v>
       </c>
       <c r="K65">
-        <f t="shared" si="47"/>
-        <v>2.9768282470373687E-5</v>
+        <f t="shared" si="73"/>
+        <v>4.0562158256828326E-6</v>
       </c>
       <c r="L65">
-        <f t="shared" si="47"/>
-        <v>7.4414282897963393E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="73"/>
+        <v>6.9652832367303938E-6</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65:V65" si="74">N37-N51</f>
+        <v>1.140779858495532E-5</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="74"/>
+        <v>1.2109224265678601E-5</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="74"/>
+        <v>5.7493422232004263E-6</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="74"/>
+        <v>1.9212900958986797E-5</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="74"/>
+        <v>1.4147033920280279E-5</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="74"/>
+        <v>2.1607235657434767E-5</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="74"/>
+        <v>2.4141938621032892E-5</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="74"/>
+        <v>7.1605887831888123E-6</v>
+      </c>
+      <c r="W65">
+        <f t="shared" ref="W65:Y65" si="75">W37-W51</f>
+        <v>1.8322308834564616E-5</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="75"/>
+        <v>1.7211282470373686E-5</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="75"/>
+        <v>2.9550282897963397E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <f t="shared" ref="A66:L66" si="48">A38-A52</f>
-        <v>2.6384133448243257E-5</v>
+        <f t="shared" ref="A66:L66" si="76">A38-A52</f>
+        <v>3.5860411153025155E-6</v>
       </c>
       <c r="B66">
-        <f t="shared" si="48"/>
-        <v>8.6517800874022494E-6</v>
+        <f t="shared" si="76"/>
+        <v>2.6862753609971479E-6</v>
       </c>
       <c r="C66">
-        <f t="shared" si="48"/>
-        <v>4.4704681219077015E-5</v>
+        <f t="shared" si="76"/>
+        <v>5.655618277295439E-6</v>
       </c>
       <c r="D66">
-        <f t="shared" si="48"/>
-        <v>6.5737072414252584E-5</v>
+        <f t="shared" si="76"/>
+        <v>7.267694006373796E-6</v>
       </c>
       <c r="E66">
-        <f t="shared" si="48"/>
-        <v>8.1132223737516302E-6</v>
+        <f t="shared" si="76"/>
+        <v>1.9935721346073554E-6</v>
       </c>
       <c r="F66">
-        <f t="shared" si="48"/>
-        <v>1.2166480060834724E-5</v>
+        <f t="shared" si="76"/>
+        <v>2.6338567014797508E-6</v>
       </c>
       <c r="G66">
-        <f t="shared" si="48"/>
-        <v>-8.6270231822106242E-7</v>
+        <f t="shared" si="76"/>
+        <v>1.511311400907994E-6</v>
       </c>
       <c r="H66">
-        <f t="shared" si="48"/>
-        <v>1.1158938508092645E-5</v>
+        <f t="shared" si="76"/>
+        <v>2.0964794933765428E-6</v>
       </c>
       <c r="I66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="48"/>
-        <v>3.3720934371907275E-5</v>
+        <f t="shared" si="76"/>
+        <v>6.0123325039499812E-6</v>
       </c>
       <c r="K66">
-        <f t="shared" si="48"/>
-        <v>-6.4591096970219064E-7</v>
+        <f t="shared" si="76"/>
+        <v>1.7824688922366658E-6</v>
       </c>
       <c r="L66">
-        <f t="shared" si="48"/>
-        <v>5.3427231992612216E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="76"/>
+        <v>6.8204169391727512E-6</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:V66" si="77">N38-N52</f>
+        <v>1.5215133448243256E-5</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="77"/>
+        <v>1.1396780087402251E-5</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="77"/>
+        <v>2.3992681219077008E-5</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="77"/>
+        <v>3.0833072414252581E-5</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="77"/>
+        <v>8.4582223737516277E-6</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="77"/>
+        <v>1.1173480060834729E-5</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="77"/>
+        <v>6.4122976817789382E-6</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="77"/>
+        <v>8.8949385080926447E-6</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" ref="W66:Y66" si="78">W38-W52</f>
+        <v>2.550893437190728E-5</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="78"/>
+        <v>7.5620890302978094E-6</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="78"/>
+        <v>2.8938231992612214E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <f t="shared" ref="A67:L67" si="49">A39-A53</f>
-        <v>2.9061662513038182E-5</v>
+        <f t="shared" ref="A67:L67" si="79">A39-A53</f>
+        <v>3.7943325435601575E-6</v>
       </c>
       <c r="B67">
-        <f t="shared" si="49"/>
-        <v>7.3447087117865388E-5</v>
+        <f t="shared" si="79"/>
+        <v>7.9374957560718098E-6</v>
       </c>
       <c r="C67">
-        <f t="shared" si="49"/>
-        <v>9.0076940539511694E-7</v>
+        <f t="shared" si="79"/>
+        <v>2.4506866978487935E-6</v>
       </c>
       <c r="D67">
-        <f t="shared" si="49"/>
-        <v>4.0770956604025584E-5</v>
+        <f t="shared" si="79"/>
+        <v>5.3852542231701897E-6</v>
       </c>
       <c r="E67">
-        <f t="shared" si="49"/>
-        <v>1.7375791903030471E-5</v>
+        <f t="shared" si="79"/>
+        <v>2.853060700327402E-6</v>
       </c>
       <c r="F67">
-        <f t="shared" si="49"/>
-        <v>1.0749271642051973E-5</v>
+        <f t="shared" si="79"/>
+        <v>2.9117465383699489E-6</v>
       </c>
       <c r="G67">
-        <f t="shared" si="49"/>
-        <v>6.176146861327055E-5</v>
+        <f t="shared" si="79"/>
+        <v>6.8253301670766179E-6</v>
       </c>
       <c r="H67">
-        <f t="shared" si="49"/>
-        <v>2.2307546325967676E-5</v>
+        <f t="shared" si="79"/>
+        <v>2.8354221395771792E-6</v>
       </c>
       <c r="I67">
-        <f t="shared" si="49"/>
-        <v>-3.176472650596692E-6</v>
+        <f t="shared" si="79"/>
+        <v>1.6617611714460685E-6</v>
       </c>
       <c r="J67">
-        <f t="shared" si="49"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="49"/>
-        <v>-5.7786676603907645E-6</v>
+        <f t="shared" si="79"/>
+        <v>1.5117294890850633E-6</v>
       </c>
       <c r="L67">
-        <f t="shared" si="49"/>
-        <v>4.1575865424994004E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="79"/>
+        <v>5.8818418343216227E-6</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:V67" si="80">N39-N53</f>
+        <v>1.609666251303818E-5</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="80"/>
+        <v>3.3673087117865386E-5</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="80"/>
+        <v>1.0397769405395118E-5</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="80"/>
+        <v>2.2846956604025584E-5</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="80"/>
+        <v>1.2104791903030473E-5</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="80"/>
+        <v>1.2353271642051973E-5</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="80"/>
+        <v>2.8956468613270555E-5</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="80"/>
+        <v>1.2030546325967679E-5</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="80"/>
+        <v>7.0485273494033058E-6</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:Y67" si="81">W39-W53</f>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="81"/>
+        <v>6.4133323396092333E-6</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="81"/>
+        <v>2.4954865424994002E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <f t="shared" ref="A68:L68" si="50">A40-A54</f>
-        <v>6.1338383461553141E-6</v>
+        <f t="shared" ref="A68:K69" si="82">A40-A54</f>
+        <v>1.700922649915732E-6</v>
       </c>
       <c r="B68">
-        <f t="shared" si="50"/>
-        <v>-5.0825142977063134E-6</v>
+        <f t="shared" si="82"/>
+        <v>1.1612001830241789E-6</v>
       </c>
       <c r="C68">
-        <f t="shared" si="50"/>
-        <v>7.6458693466699543E-6</v>
+        <f t="shared" si="82"/>
+        <v>2.8591180728768584E-6</v>
       </c>
       <c r="D68">
-        <f t="shared" si="50"/>
-        <v>2.9407519281080034E-5</v>
+        <f t="shared" si="82"/>
+        <v>4.1315308648278641E-6</v>
       </c>
       <c r="E68">
-        <f t="shared" si="50"/>
-        <v>9.6451174093620212E-6</v>
+        <f t="shared" si="82"/>
+        <v>1.9432725508659178E-6</v>
       </c>
       <c r="F68">
-        <f t="shared" si="50"/>
-        <v>3.4499968710347597E-5</v>
+        <f t="shared" si="82"/>
+        <v>4.6450494314702192E-6</v>
       </c>
       <c r="G68">
-        <f t="shared" si="50"/>
-        <v>-5.8109284655420799E-6</v>
+        <f t="shared" si="82"/>
+        <v>1.0181557875188048E-6</v>
       </c>
       <c r="H68">
-        <f t="shared" si="50"/>
-        <v>6.5298492862081561E-5</v>
+        <f t="shared" si="82"/>
+        <v>6.3696338759878108E-6</v>
       </c>
       <c r="I68">
-        <f t="shared" si="50"/>
-        <v>-8.1183267700855344E-6</v>
+        <f t="shared" si="82"/>
+        <v>3.6389695129619861E-7</v>
       </c>
       <c r="J68">
-        <f t="shared" si="50"/>
-        <v>1.9198190765482676E-5</v>
+        <f t="shared" si="82"/>
+        <v>3.441854495195584E-6</v>
       </c>
       <c r="K68">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="50"/>
-        <v>2.5402300306724744E-5</v>
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <f>L40-L54</f>
+        <v>4.5253311992679621E-6</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:V69" si="83">N40-N54</f>
+        <v>7.2158383461553149E-6</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="83"/>
+        <v>4.9264857022936852E-6</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="83"/>
+        <v>1.2129869346669954E-5</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="83"/>
+        <v>1.7529519281080031E-5</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="83"/>
+        <v>8.2451174093620176E-6</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="83"/>
+        <v>1.9708968710347596E-5</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="83"/>
+        <v>4.3190715344579163E-6</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="83"/>
+        <v>2.7024492862081555E-5</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="83"/>
+        <v>1.5436732299144656E-6</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:Y69" si="84">W40-W54</f>
+        <v>1.4602190765482675E-5</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="84"/>
+        <v>1.9197300306724745E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <f t="shared" si="82"/>
+        <v>5.4768736415785849E-6</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="82"/>
+        <v>1.4414343746777101E-6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="82"/>
+        <v>3.6803133571929891E-6</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="82"/>
+        <v>3.3413081958753017E-6</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="82"/>
+        <v>5.722178001525219E-6</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="82"/>
+        <v>3.7301219318958391E-6</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="82"/>
+        <v>1.5121115062730634E-6</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="82"/>
+        <v>1.6807103780710314E-6</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="82"/>
+        <v>9.8982270614518592E-7</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="82"/>
+        <v>3.3770564378851864E-6</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="82"/>
+        <v>1.1384453831672661E-6</v>
+      </c>
+      <c r="L69" s="1">
+        <f>L41-L55</f>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="83"/>
+        <v>2.3235583707215609E-5</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="83"/>
+        <v>6.1152473774793458E-6</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="83"/>
+        <v>1.5614303566689733E-5</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="83"/>
+        <v>1.417500681368615E-5</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="83"/>
+        <v>2.4275591443736265E-5</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="83"/>
+        <v>1.5824519600581335E-5</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="83"/>
+        <v>6.4152713491853109E-6</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="83"/>
+        <v>7.1290488594643047E-6</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="83"/>
+        <v>4.1993759967954475E-6</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="84"/>
+        <v>1.4327101972367853E-5</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="84"/>
+        <v>4.8297235242793895E-6</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="e">
+        <f>LOG10(A58)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:L72" si="85">LOG10(B58)</f>
+        <v>-5.7682720393549136</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="85"/>
+        <v>-5.6756131685851301</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="85"/>
+        <v>-4.9027081647193773</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="85"/>
+        <v>-5.5737383791272004</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="85"/>
+        <v>-5.397406068464659</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="85"/>
+        <v>-5.8329335443179344</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="85"/>
+        <v>-5.9290696856675913</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="85"/>
+        <v>-5.8079076293213028</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="85"/>
+        <v>-5.3241575539774217</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="85"/>
+        <v>-5.5898046121321237</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="85"/>
+        <v>-5.0770790289922321</v>
+      </c>
+      <c r="N72" t="e">
+        <f>LOG10(N58)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:Y72" si="86">LOG10(O58)</f>
+        <v>-5.1407022392454094</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="86"/>
+        <v>-5.0479305827113601</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="86"/>
+        <v>-4.2750662378056168</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="86"/>
+        <v>-4.9460944220229637</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="86"/>
+        <v>-4.7697782434151605</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="86"/>
+        <v>-5.2052992483616354</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="86"/>
+        <v>-5.3014603451621891</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="86"/>
+        <v>-5.1802703704041102</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="86"/>
+        <v>-4.696517395773375</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="86"/>
+        <v>-4.9621823967673819</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="86"/>
+        <v>-4.4494479931639548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <f t="shared" ref="A73:L73" si="87">LOG10(A59)</f>
+        <v>-5.644563368983877</v>
+      </c>
+      <c r="B73" t="e">
+        <f t="shared" si="87"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="87"/>
+        <v>-5.73868433988057</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="87"/>
+        <v>-5.1795086022149466</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="87"/>
+        <v>-5.4939616389943664</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="87"/>
+        <v>-5.2566900116990674</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="87"/>
+        <v>-5.7113357907183104</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="87"/>
+        <v>-6.0308049755881443</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="87"/>
+        <v>-6.3037570002853052</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="87"/>
+        <v>-5.288427740459114</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="87"/>
+        <v>-5.8034024894603347</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="87"/>
+        <v>-5.1082415920256015</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ref="N73:Y73" si="88">LOG10(N59)</f>
+        <v>-5.0169392022166024</v>
+      </c>
+      <c r="O73" t="e">
+        <f t="shared" si="88"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="88"/>
+        <v>-5.1110359538871606</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="88"/>
+        <v>-4.5518898306427165</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="88"/>
+        <v>-4.866343284211375</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="88"/>
+        <v>-4.629022459965813</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="88"/>
+        <v>-5.0837137590214496</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="88"/>
+        <v>-5.4031971054623789</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="88"/>
+        <v>-5.6761175784047717</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="88"/>
+        <v>-4.660788063045243</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="88"/>
+        <v>-5.1757927305215032</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="88"/>
+        <v>-4.4805879745391319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <f t="shared" ref="A74:L74" si="89">LOG10(A60)</f>
+        <v>-5.3547557013441649</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="89"/>
+        <v>-5.600702503030619</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="89"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="89"/>
+        <v>-5.2035204322543311</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="89"/>
+        <v>-5.6895347209184877</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="89"/>
+        <v>-5.5023417402750887</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="89"/>
+        <v>-5.8193837632104062</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="89"/>
+        <v>-5.7352789814733924</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="89"/>
+        <v>-5.1667578864195942</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="89"/>
+        <v>-4.9621206003111178</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="89"/>
+        <v>-5.5031390245610075</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="89"/>
+        <v>-5.1869024173112486</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:Y74" si="90">LOG10(N60)</f>
+        <v>-4.7271443303223357</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="90"/>
+        <v>-4.9731192929992032</v>
+      </c>
+      <c r="P74" t="e">
+        <f t="shared" si="90"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="90"/>
+        <v>-4.5758791966622523</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="90"/>
+        <v>-5.0619097345364095</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="90"/>
+        <v>-4.8746967473918037</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="90"/>
+        <v>-5.1917261053532178</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="90"/>
+        <v>-5.1076708926591579</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="90"/>
+        <v>-4.5391355221018834</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="90"/>
+        <v>-4.3344998633925664</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="90"/>
+        <v>-4.8754637340966926</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="90"/>
+        <v>-4.5592801022255562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <f t="shared" ref="A75:L75" si="91">LOG10(A61)</f>
+        <v>-4.7243897485707524</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="91"/>
+        <v>-5.6386072366295323</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="91"/>
+        <v>-5.4433205976255996</v>
+      </c>
+      <c r="D75" t="e">
+        <f t="shared" si="91"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="91"/>
+        <v>-5.6906822309210794</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="91"/>
+        <v>-5.3608811208578393</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="91"/>
+        <v>-5.8225335628596424</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="91"/>
+        <v>-5.8918696373175035</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="91"/>
+        <v>-5.4943490462</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="91"/>
+        <v>-5.2186266163068193</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="91"/>
+        <v>-5.4706704511922943</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="91"/>
+        <v>-5.1019526035323182</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75:Y75" si="92">LOG10(N61)</f>
+        <v>-4.0967805085994362</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="92"/>
+        <v>-5.0110623542070716</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="92"/>
+        <v>-4.8156810418909437</v>
+      </c>
+      <c r="Q75" t="e">
+        <f t="shared" si="92"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="92"/>
+        <v>-5.0630664283314744</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="92"/>
+        <v>-4.7332266619436245</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="92"/>
+        <v>-5.1948895863800946</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="92"/>
+        <v>-5.2642668653305043</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="92"/>
+        <v>-4.866720985175526</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="92"/>
+        <v>-4.5910078389634386</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="92"/>
+        <v>-4.842985746894211</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="92"/>
+        <v>-4.4742832404220652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <f t="shared" ref="A76:L76" si="93">LOG10(A62)</f>
+        <v>-5.6155566150105258</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="93"/>
+        <v>-5.3100166282654593</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="93"/>
+        <v>-5.8044258559399768</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="93"/>
+        <v>-5.3387429244494431</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" si="93"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="93"/>
+        <v>-5.09860824869995</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="93"/>
+        <v>-5.9476022109906701</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="93"/>
+        <v>-5.6869918407841071</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="93"/>
+        <v>-5.7929035990083202</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="93"/>
+        <v>-5.3615216240246673</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="93"/>
+        <v>-5.7930859007492073</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="93"/>
+        <v>-5.0209444182773417</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ref="N76:Y76" si="94">LOG10(N62)</f>
+        <v>-4.9879149177791531</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="94"/>
+        <v>-4.6823917326897853</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="94"/>
+        <v>-5.1767484025227466</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="94"/>
+        <v>-4.7111593939731033</v>
+      </c>
+      <c r="R76" t="e">
+        <f t="shared" si="94"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="94"/>
+        <v>-4.4709884025328721</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="94"/>
+        <v>-5.3200152423007054</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="94"/>
+        <v>-5.0593684041811615</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="94"/>
+        <v>-5.1652672245949072</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="94"/>
+        <v>-4.7338782062275246</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="94"/>
+        <v>-5.1654255960049706</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="94"/>
+        <v>-4.3932885223886391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <f t="shared" ref="A77:L77" si="95">LOG10(A63)</f>
+        <v>-5.6332554500685994</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="95"/>
+        <v>-5.3475764562805228</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="95"/>
+        <v>-5.8714355760535613</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="95"/>
+        <v>-5.3993081103175724</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="95"/>
+        <v>-5.4773891383150222</v>
+      </c>
+      <c r="F77" t="e">
+        <f t="shared" si="95"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="95"/>
+        <v>-5.8039589211722644</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="95"/>
+        <v>-5.3855190832083029</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="95"/>
+        <v>-5.5922725388905166</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="95"/>
+        <v>-5.4183506967681145</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="95"/>
+        <v>-5.4880646509766908</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="95"/>
+        <v>-5.254181924429747</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77:Y77" si="96">LOG10(N63)</f>
+        <v>-5.0056168325793333</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="96"/>
+        <v>-4.7199783513293347</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="96"/>
+        <v>-5.2437639686801854</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="96"/>
+        <v>-4.7716747508585886</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="96"/>
+        <v>-4.8497474269533809</v>
+      </c>
+      <c r="S77" t="e">
+        <f t="shared" si="96"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="96"/>
+        <v>-5.1763061832156225</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="96"/>
+        <v>-4.7578379403396891</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="96"/>
+        <v>-4.9646307293372942</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="96"/>
+        <v>-4.7907109012920328</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="96"/>
+        <v>-4.8604248684319344</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="96"/>
+        <v>-4.6265195015674587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <f t="shared" ref="A78:L78" si="97">LOG10(A64)</f>
+        <v>-5.9337850992507102</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="97"/>
+        <v>-5.6979369553578803</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="97"/>
+        <v>-5.9348761087624604</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="97"/>
+        <v>-5.3727426311758437</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="97"/>
+        <v>-5.5662050675495927</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="97"/>
+        <v>-5.390932934515825</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="97"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="97"/>
+        <v>-5.1999829173906358</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="97"/>
+        <v>-5.6118319247338162</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="97"/>
+        <v>-5.3359630935223619</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="97"/>
+        <v>-5.6509376422100148</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="97"/>
+        <v>-4.8630115822926188</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78:Y78" si="98">LOG10(N64)</f>
+        <v>-5.3061873632851819</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="98"/>
+        <v>-5.0703257395830468</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="98"/>
+        <v>-5.3072333989893625</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="98"/>
+        <v>-4.7450773767089478</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="98"/>
+        <v>-4.9385608138632531</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="98"/>
+        <v>-4.7632516319042075</v>
+      </c>
+      <c r="T78" t="e">
+        <f t="shared" si="98"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="98"/>
+        <v>-4.572352442841833</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="98"/>
+        <v>-4.9841833601376209</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="98"/>
+        <v>-4.708348862493609</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="98"/>
+        <v>-5.0233656390233596</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="98"/>
+        <v>-4.2353749626230917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <f t="shared" ref="A79:L79" si="99">LOG10(A65)</f>
+        <v>-5.5704202448220403</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="99"/>
+        <v>-5.5445304897167622</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="99"/>
+        <v>-5.8680113345601175</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="99"/>
+        <v>-5.3440731093727329</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="99"/>
+        <v>-5.4769788844108387</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="99"/>
+        <v>-5.2930047232878472</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="99"/>
+        <v>-5.244889100552272</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" si="99"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="99"/>
+        <v>-5.7727049757687023</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="99"/>
+        <v>-5.3646149582933544</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="99"/>
+        <v>-5.391878944845975</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="99"/>
+        <v>-5.1570612187018927</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79:Y79" si="100">LOG10(N65)</f>
+        <v>-4.9427981552880267</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="100"/>
+        <v>-4.916883677494936</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="100"/>
+        <v>-5.2403818396886832</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="100"/>
+        <v>-4.716407055994039</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="100"/>
+        <v>-4.8493346051632438</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="100"/>
+        <v>-4.6654007914469267</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="100"/>
+        <v>-4.6172278585712219</v>
+      </c>
+      <c r="U79" t="e">
+        <f t="shared" si="100"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="100"/>
+        <v>-5.1450512661311247</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="100"/>
+        <v>-4.7370198008138411</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="100"/>
+        <v>-4.7641867677285035</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="100"/>
+        <v>-4.5294383570691439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <f t="shared" ref="A80:L80" si="101">LOG10(A66)</f>
+        <v>-5.4453847353966358</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="101"/>
+        <v>-5.5708494713277226</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="101"/>
+        <v>-5.2475199106783945</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="101"/>
+        <v>-5.1386033661935162</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="101"/>
+        <v>-5.7003680453814978</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="101"/>
+        <v>-5.5794078571075429</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="101"/>
+        <v>-5.8206460414437746</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="101"/>
+        <v>-5.6785093812723213</v>
+      </c>
+      <c r="I80" t="e">
+        <f t="shared" si="101"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="101"/>
+        <v>-5.2209570093496733</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="101"/>
+        <v>-5.7489780407455768</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="101"/>
+        <v>-5.1661890756591706</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ref="N80:Y80" si="102">LOG10(N66)</f>
+        <v>-4.8177242341975983</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="102"/>
+        <v>-4.9432178318036328</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="102"/>
+        <v>-4.6199212162429406</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="102"/>
+        <v>-4.510983197100515</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="102"/>
+        <v>-5.0727209010732857</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="102"/>
+        <v>-4.9518115416714057</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="102"/>
+        <v>-5.1929863243476726</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="102"/>
+        <v>-5.0508570499058969</v>
+      </c>
+      <c r="V80" t="e">
+        <f t="shared" si="102"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="102"/>
+        <v>-4.593307683533169</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="102"/>
+        <v>-5.1213582138897156</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="102"/>
+        <v>-4.5385280060196012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <f t="shared" ref="A81:L81" si="103">LOG10(A67)</f>
+        <v>-5.4208646092659478</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="103"/>
+        <v>-5.1003164939034438</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="103"/>
+        <v>-5.6107122065335373</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="103"/>
+        <v>-5.2687937900235813</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="103"/>
+        <v>-5.5446889884071338</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="103"/>
+        <v>-5.5358464321674328</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="103"/>
+        <v>-5.1658763353097301</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="103"/>
+        <v>-5.5473822738994976</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="103"/>
+        <v>-5.7794313929322936</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="103"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="103"/>
+        <v>-5.8205259151232811</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="103"/>
+        <v>-5.2304866580684761</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81:Y81" si="104">LOG10(N67)</f>
+        <v>-4.7932641613858822</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="104"/>
+        <v>-4.4727170660653082</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="104"/>
+        <v>-4.9830598182810633</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="104"/>
+        <v>-4.6411716432136716</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="104"/>
+        <v>-4.9170426722397949</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="104"/>
+        <v>-4.9082180085643587</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="104"/>
+        <v>-4.5382544036380512</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="104"/>
+        <v>-4.9197146502191176</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="104"/>
+        <v>-5.1519016107866724</v>
+      </c>
+      <c r="W81" t="e">
+        <f t="shared" si="104"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="104"/>
+        <v>-5.1929162543103207</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="104"/>
+        <v>-4.6028447678271149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <f t="shared" ref="A82:L82" si="105">LOG10(A68)</f>
+        <v>-5.7693154356399772</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="105"/>
+        <v>-5.9350929043884308</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="105"/>
+        <v>-5.5437679092310121</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="105"/>
+        <v>-5.3838889984746778</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="105"/>
+        <v>-5.7114662837872485</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="105"/>
+        <v>-5.333009659991002</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="105"/>
+        <v>-5.9921857657287596</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="105"/>
+        <v>-5.1958855300206759</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="105"/>
+        <v>-6.4390215828880271</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="105"/>
+        <v>-5.4632074934707919</v>
+      </c>
+      <c r="K82" t="e">
+        <f t="shared" si="105"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="105"/>
+        <v>-5.3443496302155156</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ref="N82:Y82" si="106">LOG10(N68)</f>
+        <v>-5.1417132047010252</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="106"/>
+        <v>-5.3074627732871162</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="106"/>
+        <v>-4.9161438769838695</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="106"/>
+        <v>-4.7562299935717443</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="106"/>
+        <v>-5.083803155680469</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="106"/>
+        <v>-4.7053360999784477</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="106"/>
+        <v>-5.3646096029071053</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="106"/>
+        <v>-4.5682424472087355</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="106"/>
+        <v>-5.8114446272285267</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="106"/>
+        <v>-4.8355819821618189</v>
+      </c>
+      <c r="X82" t="e">
+        <f t="shared" si="106"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="106"/>
+        <v>-4.7167598413136052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <f t="shared" ref="A83:L83" si="107">LOG10(A69)</f>
+        <v>-5.2614672786801604</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="107"/>
+        <v>-5.8412051252938939</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="107"/>
+        <v>-5.4341152021128929</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="107"/>
+        <v>-5.4760834640221896</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="107"/>
+        <v>-5.2424386365905633</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="107"/>
+        <v>-5.4282769715468024</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="107"/>
+        <v>-5.8204161818682074</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="107"/>
+        <v>-5.774507118233549</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="107"/>
+        <v>-6.0044425878652818</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="107"/>
+        <v>-5.4714616813079431</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="107"/>
+        <v>-5.9436877997945947</v>
+      </c>
+      <c r="L83" t="e">
+        <f t="shared" si="107"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ref="N83:Y83" si="108">LOG10(N69)</f>
+        <v>-4.6338464130220558</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="108"/>
+        <v>-5.213585969943936</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="108"/>
+        <v>-4.8064773815195139</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="108"/>
+        <v>-4.8484767236769901</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="108"/>
+        <v>-4.6148301802614835</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="108"/>
+        <v>-4.8006694653853916</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="108"/>
+        <v>-5.192784969380785</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="108"/>
+        <v>-5.1469684088074166</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="108"/>
+        <v>-5.3768152384787751</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="108"/>
+        <v>-4.8438416480319946</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="108"/>
+        <v>-5.3160777295624655</v>
+      </c>
+      <c r="Y83" t="e">
+        <f t="shared" si="108"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A58:L68">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="N58:Y69 B85 A58:L83 N72:Y83">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6825,6 +9671,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8CA3020F-9069-4FDE-A57D-A7352FB6FFDE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6BF5442-8CFC-4FB3-B84A-4965900D7DF5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6844,7 +9704,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A58:L68</xm:sqref>
+          <xm:sqref>N58:Y69 B85 A58:L83 N72:Y83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6BF5442-8CFC-4FB3-B84A-4965900D7DF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
